--- a/DOKUMEN  PENDUKUNG/lampiran/01. Lampiran 1 -Struktur Organisasi.xlsx
+++ b/DOKUMEN  PENDUKUNG/lampiran/01. Lampiran 1 -Struktur Organisasi.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipepeng\DOKUMEN  PENDUKUNG\lampiran\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="360" windowWidth="18735" windowHeight="7815" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -18,12 +23,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">hURUF!$A$1:$R$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Struktur Organisasi-2'!$A$1:$Q$39</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="157">
   <si>
     <t xml:space="preserve">FORM 1 </t>
   </si>
@@ -501,10 +506,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -962,9 +967,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,7 +1001,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1008,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,35 +1098,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1219,23 +1224,95 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,78 +1341,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,20 +1353,32 @@
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1369,17 +1386,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1394,6 +1414,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1442,7 +1465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,7 +1500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2095,29 +2118,29 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -2131,8 +2154,8 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2142,7 +2165,7 @@
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="104"/>
       <c r="H5" s="19"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2716,10 +2739,10 @@
       <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="102"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="64">
         <f>SUM(C7:C26)</f>
         <v>3722</v>
@@ -2744,22 +2767,22 @@
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
     </row>
     <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="53"/>
@@ -2783,35 +2806,35 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
@@ -2821,18 +2844,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T42"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="22" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="16" style="22" customWidth="1"/>
@@ -3537,123 +3560,124 @@
     <col min="16146" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="137" t="s">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-    </row>
-    <row r="2" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="137" t="s">
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-    </row>
-    <row r="4" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" s="23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="2:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="132"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3661,19 +3685,19 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="135"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="2:17" s="23" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="23" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3681,17 +3705,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" s="23" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="23" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3709,7 +3733,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" s="23" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="23" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -3727,7 +3751,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="24"/>
       <c r="D12" s="7"/>
@@ -3739,15 +3763,15 @@
       <c r="J12" s="7"/>
       <c r="K12" s="27"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="113"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="2:17" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="27"/>
       <c r="D13" s="7"/>
@@ -3759,13 +3783,13 @@
       <c r="J13" s="7"/>
       <c r="K13" s="28"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="129"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="27"/>
       <c r="D14" s="7"/>
@@ -3777,15 +3801,15 @@
       <c r="J14" s="7"/>
       <c r="K14" s="27"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="130" t="s">
+      <c r="M14" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="132"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="119"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="27"/>
       <c r="D15" s="7"/>
@@ -3797,15 +3821,15 @@
       <c r="J15" s="7"/>
       <c r="K15" s="27"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="133" t="s">
+      <c r="M15" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="108"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="27"/>
       <c r="D16" s="7"/>
@@ -3817,13 +3841,13 @@
       <c r="J16" s="7"/>
       <c r="K16" s="27"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:20" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="27"/>
       <c r="D17" s="7"/>
@@ -3841,7 +3865,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="27"/>
       <c r="D18" s="7"/>
@@ -3858,7 +3882,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="27"/>
       <c r="D19" s="7"/>
@@ -3876,133 +3900,134 @@
       <c r="P19" s="69"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="27"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="136"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="136" t="s">
+      <c r="L20" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="136"/>
+      <c r="M20" s="125"/>
       <c r="N20" s="27"/>
       <c r="O20" s="33"/>
-      <c r="P20" s="136" t="s">
+      <c r="P20" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="136"/>
-    </row>
-    <row r="21" spans="2:20" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="125"/>
+    </row>
+    <row r="21" spans="1:23" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="27"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="119"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="120" t="s">
+      <c r="H21" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="120"/>
+      <c r="I21" s="121"/>
       <c r="J21" s="27"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="120" t="s">
+      <c r="L21" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="120"/>
+      <c r="M21" s="121"/>
       <c r="N21" s="34"/>
       <c r="O21" s="33"/>
-      <c r="P21" s="120" t="s">
+      <c r="P21" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="120"/>
-    </row>
-    <row r="22" spans="2:20" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Q21" s="121"/>
+    </row>
+    <row r="22" spans="1:23" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="35"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="116"/>
+      <c r="F22" s="127"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="115" t="s">
+      <c r="H22" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="116"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="115" t="s">
+      <c r="L22" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="116"/>
+      <c r="M22" s="127"/>
       <c r="N22" s="36"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="115" t="s">
+      <c r="P22" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="Q22" s="116"/>
-    </row>
-    <row r="23" spans="2:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="127"/>
+    </row>
+    <row r="23" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="35"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="118"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="117" t="s">
+      <c r="L23" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="118"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
-      <c r="P23" s="117" t="s">
+      <c r="P23" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="118"/>
-    </row>
-    <row r="24" spans="2:20" s="23" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="129"/>
+    </row>
+    <row r="24" spans="1:23" s="23" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="133"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="109"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
       <c r="N24" s="30"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-    </row>
-    <row r="25" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="111" t="s">
+      <c r="P24" s="132"/>
+      <c r="Q24" s="133"/>
+    </row>
+    <row r="25" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="112"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="38"/>
@@ -4018,9 +4043,10 @@
       <c r="P25" s="40"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:20" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
+    <row r="26" spans="1:23" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="137"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="39"/>
@@ -4035,10 +4061,16 @@
       <c r="O26" s="30"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="2:20" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+    </row>
+    <row r="27" spans="1:23" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
@@ -4053,10 +4085,16 @@
       <c r="O27" s="42"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+    </row>
+    <row r="28" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -4072,7 +4110,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4090,7 +4128,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:20" s="23" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="23" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
       <c r="C30" s="71" t="s">
         <v>89</v>
@@ -4107,7 +4145,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:20" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="46"/>
       <c r="C31" s="47">
         <v>1</v>
@@ -4130,7 +4168,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="2:20" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46"/>
       <c r="C32" s="47">
         <v>2</v>
@@ -4210,51 +4248,168 @@
       <c r="E36" s="48"/>
       <c r="O36" s="46"/>
     </row>
-    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="97" t="s">
+    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="47">
+        <v>1</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23">
+        <v>6</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="48"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="47">
+        <v>2</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23">
+        <v>7</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="48"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="47">
+        <v>3</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23">
+        <v>8</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="48"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="47">
+        <v>4</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23">
+        <v>9</v>
+      </c>
+      <c r="K41" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="48"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="48">
+        <v>5</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="J42" s="22">
+        <v>10</v>
+      </c>
+      <c r="K42" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42" s="48"/>
+    </row>
+    <row r="44" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C44" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-    </row>
-    <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="97" t="s">
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="L21:M21"/>
@@ -4268,21 +4423,12 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.39370078740157483" top="0.57999999999999996" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -4296,7 +4442,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:O41"/>
+      <selection activeCell="B35" sqref="B35:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5076,12 +5222,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -5096,10 +5242,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -5114,12 +5260,12 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -5134,12 +5280,12 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -5154,12 +5300,12 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -5174,10 +5320,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -5232,12 +5378,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="27"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="124" t="s">
+      <c r="L13" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="126"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,10 +5398,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="28"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="116"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -5270,12 +5416,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="27"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="130" t="s">
+      <c r="L15" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="132"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5290,12 +5436,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="27"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="133" t="s">
+      <c r="L16" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="135"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5310,12 +5456,12 @@
       <c r="I17" s="7"/>
       <c r="J17" s="27"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="135"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,10 +5476,10 @@
       <c r="I18" s="7"/>
       <c r="J18" s="27"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="123"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5408,105 +5554,105 @@
       <c r="A23" s="7"/>
       <c r="B23" s="27"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="136"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="136" t="s">
+      <c r="K23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="136"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="27"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="136" t="s">
+      <c r="O23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="136"/>
+      <c r="P23" s="125"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="27"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="120" t="s">
+      <c r="G24" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="120"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="27"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="120" t="s">
+      <c r="K24" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="120"/>
+      <c r="L24" s="121"/>
       <c r="M24" s="34"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="120" t="s">
+      <c r="O24" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="120"/>
+      <c r="P24" s="121"/>
     </row>
     <row r="25" spans="1:16" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="35"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="116"/>
+      <c r="E25" s="127"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="115" t="s">
+      <c r="G25" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="116"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="115" t="s">
+      <c r="K25" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="116"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="36"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="115" t="s">
+      <c r="O25" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="116"/>
+      <c r="P25" s="127"/>
     </row>
     <row r="26" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="118"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="118"/>
+      <c r="H26" s="129"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="129"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="117" t="s">
+      <c r="O26" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="118"/>
+      <c r="P26" s="129"/>
     </row>
     <row r="27" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -5532,25 +5678,25 @@
       <c r="A28" s="7"/>
       <c r="B28" s="28"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="109"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="133"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="109"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="133"/>
       <c r="M28" s="30"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="38"/>
@@ -5567,8 +5713,8 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="39"/>
@@ -5585,8 +5731,8 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -5603,8 +5749,8 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -5621,8 +5767,8 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -5804,6 +5950,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="H8:K8"/>
@@ -5820,27 +5987,6 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.39370078740157483" top="0.35433070866141736" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -8449,12 +8595,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8469,10 +8615,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8490,9 +8636,9 @@
       <c r="H7" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="146"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -8507,12 +8653,12 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -8527,12 +8673,12 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8547,12 +8693,12 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -8607,12 +8753,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="27"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="124" t="s">
+      <c r="L13" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="126"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8627,10 +8773,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="28"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="116"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -8648,9 +8794,9 @@
       <c r="L15" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="146"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="145"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8665,12 +8811,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="27"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="133" t="s">
+      <c r="L16" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="135"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8685,12 +8831,12 @@
       <c r="I17" s="7"/>
       <c r="J17" s="27"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="135"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8705,12 +8851,12 @@
       <c r="I18" s="7"/>
       <c r="J18" s="27"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="121" t="s">
+      <c r="L18" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8785,53 +8931,53 @@
       <c r="A23" s="7"/>
       <c r="B23" s="27"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="136"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="136" t="s">
+      <c r="K23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="136"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="27"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="136" t="s">
+      <c r="O23" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="136"/>
+      <c r="P23" s="125"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="27"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="120" t="s">
+      <c r="G24" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="120"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="27"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="120" t="s">
+      <c r="K24" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="120"/>
+      <c r="L24" s="121"/>
       <c r="M24" s="34"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="120" t="s">
+      <c r="O24" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="120"/>
+      <c r="P24" s="121"/>
     </row>
     <row r="25" spans="1:16" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -8840,50 +8986,50 @@
       <c r="D25" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="146"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="6"/>
       <c r="G25" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="146"/>
+      <c r="H25" s="145"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="146"/>
+      <c r="L25" s="145"/>
       <c r="M25" s="36"/>
       <c r="N25" s="6"/>
       <c r="O25" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="146"/>
+      <c r="P25" s="145"/>
     </row>
     <row r="26" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="118"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="118"/>
+      <c r="H26" s="129"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="129"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="117" t="s">
+      <c r="O26" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="147"/>
+      <c r="P26" s="146"/>
     </row>
     <row r="27" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -8915,33 +9061,33 @@
       <c r="A28" s="7"/>
       <c r="B28" s="28"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="109"/>
+      <c r="E28" s="133"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="110" t="s">
+      <c r="G28" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="109"/>
+      <c r="H28" s="133"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="109"/>
+      <c r="L28" s="133"/>
       <c r="M28" s="30"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="108" t="s">
+      <c r="O28" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="109"/>
+      <c r="P28" s="133"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="38"/>
@@ -8958,8 +9104,8 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="39"/>
@@ -8976,8 +9122,8 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -8994,8 +9140,8 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -9012,8 +9158,8 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -9180,22 +9326,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="H7:K7"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="K24:L24"/>
@@ -9211,12 +9347,22 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.4" top="0.56000000000000005" bottom="0.78" header="0.5" footer="0.5"/>
@@ -9264,42 +9410,42 @@
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="148" t="s">
+      <c r="F3" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="148"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="149"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -9318,10 +9464,10 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="148"/>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
       <c r="F6" s="75"/>
@@ -9333,10 +9479,10 @@
       <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
       <c r="F7" s="75"/>
@@ -9371,35 +9517,35 @@
       <c r="K9" s="75"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
       <c r="F11" s="75"/>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
       <c r="K11" s="75"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9416,18 +9562,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.42" top="0.94" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="768" orientation="portrait" r:id="rId1"/>

--- a/DOKUMEN  PENDUKUNG/lampiran/01. Lampiran 1 -Struktur Organisasi.xlsx
+++ b/DOKUMEN  PENDUKUNG/lampiran/01. Lampiran 1 -Struktur Organisasi.xlsx
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">hURUF!$A$1:$R$110</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Struktur Organisasi-2'!$A$1:$Q$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Struktur Organisasi-2'!$F$2:$V$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="157">
   <si>
     <t xml:space="preserve">FORM 1 </t>
   </si>
@@ -704,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -961,6 +961,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -969,7 +991,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,9 +1161,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1224,6 +1243,15 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,11 +1264,95 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1251,68 +1363,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,33 +1381,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,14 +1393,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1380,26 +1420,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2118,29 +2178,29 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -2154,8 +2214,8 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2165,7 +2225,7 @@
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="100"/>
       <c r="H5" s="19"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2739,10 +2799,10 @@
       <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="100"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="64">
         <f>SUM(C7:C26)</f>
         <v>3722</v>
@@ -2767,22 +2827,22 @@
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="53"/>
@@ -2806,35 +2866,35 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
@@ -2844,1591 +2904,1763 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="F2:AB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="22" customWidth="1"/>
-    <col min="10" max="11" width="2.85546875" style="22" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14" max="15" width="2.7109375" style="22" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="22" customWidth="1"/>
-    <col min="18" max="257" width="9.140625" style="22"/>
-    <col min="258" max="258" width="5.140625" style="22" customWidth="1"/>
-    <col min="259" max="259" width="9.7109375" style="22" customWidth="1"/>
-    <col min="260" max="260" width="1.42578125" style="22" customWidth="1"/>
-    <col min="261" max="262" width="12.7109375" style="22" customWidth="1"/>
-    <col min="263" max="263" width="3.7109375" style="22" customWidth="1"/>
-    <col min="264" max="265" width="12.7109375" style="22" customWidth="1"/>
-    <col min="266" max="267" width="2.85546875" style="22" customWidth="1"/>
-    <col min="268" max="269" width="12.7109375" style="22" customWidth="1"/>
-    <col min="270" max="271" width="2.7109375" style="22" customWidth="1"/>
-    <col min="272" max="273" width="12.7109375" style="22" customWidth="1"/>
-    <col min="274" max="513" width="9.140625" style="22"/>
-    <col min="514" max="514" width="5.140625" style="22" customWidth="1"/>
-    <col min="515" max="515" width="9.7109375" style="22" customWidth="1"/>
-    <col min="516" max="516" width="1.42578125" style="22" customWidth="1"/>
-    <col min="517" max="518" width="12.7109375" style="22" customWidth="1"/>
-    <col min="519" max="519" width="3.7109375" style="22" customWidth="1"/>
-    <col min="520" max="521" width="12.7109375" style="22" customWidth="1"/>
-    <col min="522" max="523" width="2.85546875" style="22" customWidth="1"/>
-    <col min="524" max="525" width="12.7109375" style="22" customWidth="1"/>
-    <col min="526" max="527" width="2.7109375" style="22" customWidth="1"/>
-    <col min="528" max="529" width="12.7109375" style="22" customWidth="1"/>
-    <col min="530" max="769" width="9.140625" style="22"/>
-    <col min="770" max="770" width="5.140625" style="22" customWidth="1"/>
-    <col min="771" max="771" width="9.7109375" style="22" customWidth="1"/>
-    <col min="772" max="772" width="1.42578125" style="22" customWidth="1"/>
-    <col min="773" max="774" width="12.7109375" style="22" customWidth="1"/>
-    <col min="775" max="775" width="3.7109375" style="22" customWidth="1"/>
-    <col min="776" max="777" width="12.7109375" style="22" customWidth="1"/>
-    <col min="778" max="779" width="2.85546875" style="22" customWidth="1"/>
-    <col min="780" max="781" width="12.7109375" style="22" customWidth="1"/>
-    <col min="782" max="783" width="2.7109375" style="22" customWidth="1"/>
-    <col min="784" max="785" width="12.7109375" style="22" customWidth="1"/>
-    <col min="786" max="1025" width="9.140625" style="22"/>
-    <col min="1026" max="1026" width="5.140625" style="22" customWidth="1"/>
-    <col min="1027" max="1027" width="9.7109375" style="22" customWidth="1"/>
-    <col min="1028" max="1028" width="1.42578125" style="22" customWidth="1"/>
-    <col min="1029" max="1030" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1031" max="1031" width="3.7109375" style="22" customWidth="1"/>
-    <col min="1032" max="1033" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1034" max="1035" width="2.85546875" style="22" customWidth="1"/>
-    <col min="1036" max="1037" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1038" max="1039" width="2.7109375" style="22" customWidth="1"/>
-    <col min="1040" max="1041" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1042" max="1281" width="9.140625" style="22"/>
-    <col min="1282" max="1282" width="5.140625" style="22" customWidth="1"/>
-    <col min="1283" max="1283" width="9.7109375" style="22" customWidth="1"/>
-    <col min="1284" max="1284" width="1.42578125" style="22" customWidth="1"/>
-    <col min="1285" max="1286" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1287" max="1287" width="3.7109375" style="22" customWidth="1"/>
-    <col min="1288" max="1289" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1290" max="1291" width="2.85546875" style="22" customWidth="1"/>
-    <col min="1292" max="1293" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1294" max="1295" width="2.7109375" style="22" customWidth="1"/>
-    <col min="1296" max="1297" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1298" max="1537" width="9.140625" style="22"/>
-    <col min="1538" max="1538" width="5.140625" style="22" customWidth="1"/>
-    <col min="1539" max="1539" width="9.7109375" style="22" customWidth="1"/>
-    <col min="1540" max="1540" width="1.42578125" style="22" customWidth="1"/>
-    <col min="1541" max="1542" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1543" max="1543" width="3.7109375" style="22" customWidth="1"/>
-    <col min="1544" max="1545" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1546" max="1547" width="2.85546875" style="22" customWidth="1"/>
-    <col min="1548" max="1549" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1550" max="1551" width="2.7109375" style="22" customWidth="1"/>
-    <col min="1552" max="1553" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1554" max="1793" width="9.140625" style="22"/>
-    <col min="1794" max="1794" width="5.140625" style="22" customWidth="1"/>
-    <col min="1795" max="1795" width="9.7109375" style="22" customWidth="1"/>
-    <col min="1796" max="1796" width="1.42578125" style="22" customWidth="1"/>
-    <col min="1797" max="1798" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1799" max="1799" width="3.7109375" style="22" customWidth="1"/>
-    <col min="1800" max="1801" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1802" max="1803" width="2.85546875" style="22" customWidth="1"/>
-    <col min="1804" max="1805" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1806" max="1807" width="2.7109375" style="22" customWidth="1"/>
-    <col min="1808" max="1809" width="12.7109375" style="22" customWidth="1"/>
-    <col min="1810" max="2049" width="9.140625" style="22"/>
-    <col min="2050" max="2050" width="5.140625" style="22" customWidth="1"/>
-    <col min="2051" max="2051" width="9.7109375" style="22" customWidth="1"/>
-    <col min="2052" max="2052" width="1.42578125" style="22" customWidth="1"/>
-    <col min="2053" max="2054" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2055" max="2055" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2056" max="2057" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2058" max="2059" width="2.85546875" style="22" customWidth="1"/>
-    <col min="2060" max="2061" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2062" max="2063" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2064" max="2065" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2066" max="2305" width="9.140625" style="22"/>
-    <col min="2306" max="2306" width="5.140625" style="22" customWidth="1"/>
-    <col min="2307" max="2307" width="9.7109375" style="22" customWidth="1"/>
-    <col min="2308" max="2308" width="1.42578125" style="22" customWidth="1"/>
-    <col min="2309" max="2310" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2311" max="2311" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2312" max="2313" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2314" max="2315" width="2.85546875" style="22" customWidth="1"/>
-    <col min="2316" max="2317" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2318" max="2319" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2320" max="2321" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2322" max="2561" width="9.140625" style="22"/>
-    <col min="2562" max="2562" width="5.140625" style="22" customWidth="1"/>
-    <col min="2563" max="2563" width="9.7109375" style="22" customWidth="1"/>
-    <col min="2564" max="2564" width="1.42578125" style="22" customWidth="1"/>
-    <col min="2565" max="2566" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2567" max="2567" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2568" max="2569" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2570" max="2571" width="2.85546875" style="22" customWidth="1"/>
-    <col min="2572" max="2573" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2574" max="2575" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2576" max="2577" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2578" max="2817" width="9.140625" style="22"/>
-    <col min="2818" max="2818" width="5.140625" style="22" customWidth="1"/>
-    <col min="2819" max="2819" width="9.7109375" style="22" customWidth="1"/>
-    <col min="2820" max="2820" width="1.42578125" style="22" customWidth="1"/>
-    <col min="2821" max="2822" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2823" max="2823" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2824" max="2825" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2826" max="2827" width="2.85546875" style="22" customWidth="1"/>
-    <col min="2828" max="2829" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2830" max="2831" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2832" max="2833" width="12.7109375" style="22" customWidth="1"/>
-    <col min="2834" max="3073" width="9.140625" style="22"/>
-    <col min="3074" max="3074" width="5.140625" style="22" customWidth="1"/>
-    <col min="3075" max="3075" width="9.7109375" style="22" customWidth="1"/>
-    <col min="3076" max="3076" width="1.42578125" style="22" customWidth="1"/>
-    <col min="3077" max="3078" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3079" max="3079" width="3.7109375" style="22" customWidth="1"/>
-    <col min="3080" max="3081" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3082" max="3083" width="2.85546875" style="22" customWidth="1"/>
-    <col min="3084" max="3085" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3086" max="3087" width="2.7109375" style="22" customWidth="1"/>
-    <col min="3088" max="3089" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3090" max="3329" width="9.140625" style="22"/>
-    <col min="3330" max="3330" width="5.140625" style="22" customWidth="1"/>
-    <col min="3331" max="3331" width="9.7109375" style="22" customWidth="1"/>
-    <col min="3332" max="3332" width="1.42578125" style="22" customWidth="1"/>
-    <col min="3333" max="3334" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3335" max="3335" width="3.7109375" style="22" customWidth="1"/>
-    <col min="3336" max="3337" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3338" max="3339" width="2.85546875" style="22" customWidth="1"/>
-    <col min="3340" max="3341" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3342" max="3343" width="2.7109375" style="22" customWidth="1"/>
-    <col min="3344" max="3345" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3346" max="3585" width="9.140625" style="22"/>
-    <col min="3586" max="3586" width="5.140625" style="22" customWidth="1"/>
-    <col min="3587" max="3587" width="9.7109375" style="22" customWidth="1"/>
-    <col min="3588" max="3588" width="1.42578125" style="22" customWidth="1"/>
-    <col min="3589" max="3590" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3591" max="3591" width="3.7109375" style="22" customWidth="1"/>
-    <col min="3592" max="3593" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3594" max="3595" width="2.85546875" style="22" customWidth="1"/>
-    <col min="3596" max="3597" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3598" max="3599" width="2.7109375" style="22" customWidth="1"/>
-    <col min="3600" max="3601" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3602" max="3841" width="9.140625" style="22"/>
-    <col min="3842" max="3842" width="5.140625" style="22" customWidth="1"/>
-    <col min="3843" max="3843" width="9.7109375" style="22" customWidth="1"/>
-    <col min="3844" max="3844" width="1.42578125" style="22" customWidth="1"/>
-    <col min="3845" max="3846" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3847" max="3847" width="3.7109375" style="22" customWidth="1"/>
-    <col min="3848" max="3849" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3850" max="3851" width="2.85546875" style="22" customWidth="1"/>
-    <col min="3852" max="3853" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3854" max="3855" width="2.7109375" style="22" customWidth="1"/>
-    <col min="3856" max="3857" width="12.7109375" style="22" customWidth="1"/>
-    <col min="3858" max="4097" width="9.140625" style="22"/>
-    <col min="4098" max="4098" width="5.140625" style="22" customWidth="1"/>
-    <col min="4099" max="4099" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4100" max="4100" width="1.42578125" style="22" customWidth="1"/>
-    <col min="4101" max="4102" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4103" max="4103" width="3.7109375" style="22" customWidth="1"/>
-    <col min="4104" max="4105" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4106" max="4107" width="2.85546875" style="22" customWidth="1"/>
-    <col min="4108" max="4109" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4110" max="4111" width="2.7109375" style="22" customWidth="1"/>
-    <col min="4112" max="4113" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4114" max="4353" width="9.140625" style="22"/>
-    <col min="4354" max="4354" width="5.140625" style="22" customWidth="1"/>
-    <col min="4355" max="4355" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4356" max="4356" width="1.42578125" style="22" customWidth="1"/>
-    <col min="4357" max="4358" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4359" max="4359" width="3.7109375" style="22" customWidth="1"/>
-    <col min="4360" max="4361" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4362" max="4363" width="2.85546875" style="22" customWidth="1"/>
-    <col min="4364" max="4365" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4366" max="4367" width="2.7109375" style="22" customWidth="1"/>
-    <col min="4368" max="4369" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4370" max="4609" width="9.140625" style="22"/>
-    <col min="4610" max="4610" width="5.140625" style="22" customWidth="1"/>
-    <col min="4611" max="4611" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4612" max="4612" width="1.42578125" style="22" customWidth="1"/>
-    <col min="4613" max="4614" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4615" max="4615" width="3.7109375" style="22" customWidth="1"/>
-    <col min="4616" max="4617" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4618" max="4619" width="2.85546875" style="22" customWidth="1"/>
-    <col min="4620" max="4621" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4622" max="4623" width="2.7109375" style="22" customWidth="1"/>
-    <col min="4624" max="4625" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4626" max="4865" width="9.140625" style="22"/>
-    <col min="4866" max="4866" width="5.140625" style="22" customWidth="1"/>
-    <col min="4867" max="4867" width="9.7109375" style="22" customWidth="1"/>
-    <col min="4868" max="4868" width="1.42578125" style="22" customWidth="1"/>
-    <col min="4869" max="4870" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4871" max="4871" width="3.7109375" style="22" customWidth="1"/>
-    <col min="4872" max="4873" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4874" max="4875" width="2.85546875" style="22" customWidth="1"/>
-    <col min="4876" max="4877" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4878" max="4879" width="2.7109375" style="22" customWidth="1"/>
-    <col min="4880" max="4881" width="12.7109375" style="22" customWidth="1"/>
-    <col min="4882" max="5121" width="9.140625" style="22"/>
-    <col min="5122" max="5122" width="5.140625" style="22" customWidth="1"/>
-    <col min="5123" max="5123" width="9.7109375" style="22" customWidth="1"/>
-    <col min="5124" max="5124" width="1.42578125" style="22" customWidth="1"/>
-    <col min="5125" max="5126" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5127" max="5127" width="3.7109375" style="22" customWidth="1"/>
-    <col min="5128" max="5129" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5130" max="5131" width="2.85546875" style="22" customWidth="1"/>
-    <col min="5132" max="5133" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5134" max="5135" width="2.7109375" style="22" customWidth="1"/>
-    <col min="5136" max="5137" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5138" max="5377" width="9.140625" style="22"/>
-    <col min="5378" max="5378" width="5.140625" style="22" customWidth="1"/>
-    <col min="5379" max="5379" width="9.7109375" style="22" customWidth="1"/>
-    <col min="5380" max="5380" width="1.42578125" style="22" customWidth="1"/>
-    <col min="5381" max="5382" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5383" max="5383" width="3.7109375" style="22" customWidth="1"/>
-    <col min="5384" max="5385" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5386" max="5387" width="2.85546875" style="22" customWidth="1"/>
-    <col min="5388" max="5389" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5390" max="5391" width="2.7109375" style="22" customWidth="1"/>
-    <col min="5392" max="5393" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5394" max="5633" width="9.140625" style="22"/>
-    <col min="5634" max="5634" width="5.140625" style="22" customWidth="1"/>
-    <col min="5635" max="5635" width="9.7109375" style="22" customWidth="1"/>
-    <col min="5636" max="5636" width="1.42578125" style="22" customWidth="1"/>
-    <col min="5637" max="5638" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5639" max="5639" width="3.7109375" style="22" customWidth="1"/>
-    <col min="5640" max="5641" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5642" max="5643" width="2.85546875" style="22" customWidth="1"/>
-    <col min="5644" max="5645" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5646" max="5647" width="2.7109375" style="22" customWidth="1"/>
-    <col min="5648" max="5649" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5650" max="5889" width="9.140625" style="22"/>
-    <col min="5890" max="5890" width="5.140625" style="22" customWidth="1"/>
-    <col min="5891" max="5891" width="9.7109375" style="22" customWidth="1"/>
-    <col min="5892" max="5892" width="1.42578125" style="22" customWidth="1"/>
-    <col min="5893" max="5894" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5895" max="5895" width="3.7109375" style="22" customWidth="1"/>
-    <col min="5896" max="5897" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5898" max="5899" width="2.85546875" style="22" customWidth="1"/>
-    <col min="5900" max="5901" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5902" max="5903" width="2.7109375" style="22" customWidth="1"/>
-    <col min="5904" max="5905" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5906" max="6145" width="9.140625" style="22"/>
-    <col min="6146" max="6146" width="5.140625" style="22" customWidth="1"/>
-    <col min="6147" max="6147" width="9.7109375" style="22" customWidth="1"/>
-    <col min="6148" max="6148" width="1.42578125" style="22" customWidth="1"/>
-    <col min="6149" max="6150" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6151" max="6151" width="3.7109375" style="22" customWidth="1"/>
-    <col min="6152" max="6153" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6154" max="6155" width="2.85546875" style="22" customWidth="1"/>
-    <col min="6156" max="6157" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6158" max="6159" width="2.7109375" style="22" customWidth="1"/>
-    <col min="6160" max="6161" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6162" max="6401" width="9.140625" style="22"/>
-    <col min="6402" max="6402" width="5.140625" style="22" customWidth="1"/>
-    <col min="6403" max="6403" width="9.7109375" style="22" customWidth="1"/>
-    <col min="6404" max="6404" width="1.42578125" style="22" customWidth="1"/>
-    <col min="6405" max="6406" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6407" max="6407" width="3.7109375" style="22" customWidth="1"/>
-    <col min="6408" max="6409" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6410" max="6411" width="2.85546875" style="22" customWidth="1"/>
-    <col min="6412" max="6413" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6414" max="6415" width="2.7109375" style="22" customWidth="1"/>
-    <col min="6416" max="6417" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6418" max="6657" width="9.140625" style="22"/>
-    <col min="6658" max="6658" width="5.140625" style="22" customWidth="1"/>
-    <col min="6659" max="6659" width="9.7109375" style="22" customWidth="1"/>
-    <col min="6660" max="6660" width="1.42578125" style="22" customWidth="1"/>
-    <col min="6661" max="6662" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6663" max="6663" width="3.7109375" style="22" customWidth="1"/>
-    <col min="6664" max="6665" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6666" max="6667" width="2.85546875" style="22" customWidth="1"/>
-    <col min="6668" max="6669" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6670" max="6671" width="2.7109375" style="22" customWidth="1"/>
-    <col min="6672" max="6673" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6674" max="6913" width="9.140625" style="22"/>
-    <col min="6914" max="6914" width="5.140625" style="22" customWidth="1"/>
-    <col min="6915" max="6915" width="9.7109375" style="22" customWidth="1"/>
-    <col min="6916" max="6916" width="1.42578125" style="22" customWidth="1"/>
-    <col min="6917" max="6918" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6919" max="6919" width="3.7109375" style="22" customWidth="1"/>
-    <col min="6920" max="6921" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6922" max="6923" width="2.85546875" style="22" customWidth="1"/>
-    <col min="6924" max="6925" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6926" max="6927" width="2.7109375" style="22" customWidth="1"/>
-    <col min="6928" max="6929" width="12.7109375" style="22" customWidth="1"/>
-    <col min="6930" max="7169" width="9.140625" style="22"/>
-    <col min="7170" max="7170" width="5.140625" style="22" customWidth="1"/>
-    <col min="7171" max="7171" width="9.7109375" style="22" customWidth="1"/>
-    <col min="7172" max="7172" width="1.42578125" style="22" customWidth="1"/>
-    <col min="7173" max="7174" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7175" max="7175" width="3.7109375" style="22" customWidth="1"/>
-    <col min="7176" max="7177" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7178" max="7179" width="2.85546875" style="22" customWidth="1"/>
-    <col min="7180" max="7181" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7182" max="7183" width="2.7109375" style="22" customWidth="1"/>
-    <col min="7184" max="7185" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7186" max="7425" width="9.140625" style="22"/>
-    <col min="7426" max="7426" width="5.140625" style="22" customWidth="1"/>
-    <col min="7427" max="7427" width="9.7109375" style="22" customWidth="1"/>
-    <col min="7428" max="7428" width="1.42578125" style="22" customWidth="1"/>
-    <col min="7429" max="7430" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7431" max="7431" width="3.7109375" style="22" customWidth="1"/>
-    <col min="7432" max="7433" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7434" max="7435" width="2.85546875" style="22" customWidth="1"/>
-    <col min="7436" max="7437" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7438" max="7439" width="2.7109375" style="22" customWidth="1"/>
-    <col min="7440" max="7441" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7442" max="7681" width="9.140625" style="22"/>
-    <col min="7682" max="7682" width="5.140625" style="22" customWidth="1"/>
-    <col min="7683" max="7683" width="9.7109375" style="22" customWidth="1"/>
-    <col min="7684" max="7684" width="1.42578125" style="22" customWidth="1"/>
-    <col min="7685" max="7686" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7687" max="7687" width="3.7109375" style="22" customWidth="1"/>
-    <col min="7688" max="7689" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7690" max="7691" width="2.85546875" style="22" customWidth="1"/>
-    <col min="7692" max="7693" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7694" max="7695" width="2.7109375" style="22" customWidth="1"/>
-    <col min="7696" max="7697" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7698" max="7937" width="9.140625" style="22"/>
-    <col min="7938" max="7938" width="5.140625" style="22" customWidth="1"/>
-    <col min="7939" max="7939" width="9.7109375" style="22" customWidth="1"/>
-    <col min="7940" max="7940" width="1.42578125" style="22" customWidth="1"/>
-    <col min="7941" max="7942" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7943" max="7943" width="3.7109375" style="22" customWidth="1"/>
-    <col min="7944" max="7945" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7946" max="7947" width="2.85546875" style="22" customWidth="1"/>
-    <col min="7948" max="7949" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7950" max="7951" width="2.7109375" style="22" customWidth="1"/>
-    <col min="7952" max="7953" width="12.7109375" style="22" customWidth="1"/>
-    <col min="7954" max="8193" width="9.140625" style="22"/>
-    <col min="8194" max="8194" width="5.140625" style="22" customWidth="1"/>
-    <col min="8195" max="8195" width="9.7109375" style="22" customWidth="1"/>
-    <col min="8196" max="8196" width="1.42578125" style="22" customWidth="1"/>
-    <col min="8197" max="8198" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8199" max="8199" width="3.7109375" style="22" customWidth="1"/>
-    <col min="8200" max="8201" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8202" max="8203" width="2.85546875" style="22" customWidth="1"/>
-    <col min="8204" max="8205" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8206" max="8207" width="2.7109375" style="22" customWidth="1"/>
-    <col min="8208" max="8209" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8210" max="8449" width="9.140625" style="22"/>
-    <col min="8450" max="8450" width="5.140625" style="22" customWidth="1"/>
-    <col min="8451" max="8451" width="9.7109375" style="22" customWidth="1"/>
-    <col min="8452" max="8452" width="1.42578125" style="22" customWidth="1"/>
-    <col min="8453" max="8454" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8455" max="8455" width="3.7109375" style="22" customWidth="1"/>
-    <col min="8456" max="8457" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8458" max="8459" width="2.85546875" style="22" customWidth="1"/>
-    <col min="8460" max="8461" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8462" max="8463" width="2.7109375" style="22" customWidth="1"/>
-    <col min="8464" max="8465" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8466" max="8705" width="9.140625" style="22"/>
-    <col min="8706" max="8706" width="5.140625" style="22" customWidth="1"/>
-    <col min="8707" max="8707" width="9.7109375" style="22" customWidth="1"/>
-    <col min="8708" max="8708" width="1.42578125" style="22" customWidth="1"/>
-    <col min="8709" max="8710" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8711" max="8711" width="3.7109375" style="22" customWidth="1"/>
-    <col min="8712" max="8713" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8714" max="8715" width="2.85546875" style="22" customWidth="1"/>
-    <col min="8716" max="8717" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8718" max="8719" width="2.7109375" style="22" customWidth="1"/>
-    <col min="8720" max="8721" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8722" max="8961" width="9.140625" style="22"/>
-    <col min="8962" max="8962" width="5.140625" style="22" customWidth="1"/>
-    <col min="8963" max="8963" width="9.7109375" style="22" customWidth="1"/>
-    <col min="8964" max="8964" width="1.42578125" style="22" customWidth="1"/>
-    <col min="8965" max="8966" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8967" max="8967" width="3.7109375" style="22" customWidth="1"/>
-    <col min="8968" max="8969" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8970" max="8971" width="2.85546875" style="22" customWidth="1"/>
-    <col min="8972" max="8973" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8974" max="8975" width="2.7109375" style="22" customWidth="1"/>
-    <col min="8976" max="8977" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8978" max="9217" width="9.140625" style="22"/>
-    <col min="9218" max="9218" width="5.140625" style="22" customWidth="1"/>
-    <col min="9219" max="9219" width="9.7109375" style="22" customWidth="1"/>
-    <col min="9220" max="9220" width="1.42578125" style="22" customWidth="1"/>
-    <col min="9221" max="9222" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9223" max="9223" width="3.7109375" style="22" customWidth="1"/>
-    <col min="9224" max="9225" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9226" max="9227" width="2.85546875" style="22" customWidth="1"/>
-    <col min="9228" max="9229" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9230" max="9231" width="2.7109375" style="22" customWidth="1"/>
-    <col min="9232" max="9233" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9234" max="9473" width="9.140625" style="22"/>
-    <col min="9474" max="9474" width="5.140625" style="22" customWidth="1"/>
-    <col min="9475" max="9475" width="9.7109375" style="22" customWidth="1"/>
-    <col min="9476" max="9476" width="1.42578125" style="22" customWidth="1"/>
-    <col min="9477" max="9478" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9479" max="9479" width="3.7109375" style="22" customWidth="1"/>
-    <col min="9480" max="9481" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9482" max="9483" width="2.85546875" style="22" customWidth="1"/>
-    <col min="9484" max="9485" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9486" max="9487" width="2.7109375" style="22" customWidth="1"/>
-    <col min="9488" max="9489" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9490" max="9729" width="9.140625" style="22"/>
-    <col min="9730" max="9730" width="5.140625" style="22" customWidth="1"/>
-    <col min="9731" max="9731" width="9.7109375" style="22" customWidth="1"/>
-    <col min="9732" max="9732" width="1.42578125" style="22" customWidth="1"/>
-    <col min="9733" max="9734" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9735" max="9735" width="3.7109375" style="22" customWidth="1"/>
-    <col min="9736" max="9737" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9738" max="9739" width="2.85546875" style="22" customWidth="1"/>
-    <col min="9740" max="9741" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9742" max="9743" width="2.7109375" style="22" customWidth="1"/>
-    <col min="9744" max="9745" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9746" max="9985" width="9.140625" style="22"/>
-    <col min="9986" max="9986" width="5.140625" style="22" customWidth="1"/>
-    <col min="9987" max="9987" width="9.7109375" style="22" customWidth="1"/>
-    <col min="9988" max="9988" width="1.42578125" style="22" customWidth="1"/>
-    <col min="9989" max="9990" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9991" max="9991" width="3.7109375" style="22" customWidth="1"/>
-    <col min="9992" max="9993" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9994" max="9995" width="2.85546875" style="22" customWidth="1"/>
-    <col min="9996" max="9997" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9998" max="9999" width="2.7109375" style="22" customWidth="1"/>
-    <col min="10000" max="10001" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10002" max="10241" width="9.140625" style="22"/>
-    <col min="10242" max="10242" width="5.140625" style="22" customWidth="1"/>
-    <col min="10243" max="10243" width="9.7109375" style="22" customWidth="1"/>
-    <col min="10244" max="10244" width="1.42578125" style="22" customWidth="1"/>
-    <col min="10245" max="10246" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10247" max="10247" width="3.7109375" style="22" customWidth="1"/>
-    <col min="10248" max="10249" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10250" max="10251" width="2.85546875" style="22" customWidth="1"/>
-    <col min="10252" max="10253" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10254" max="10255" width="2.7109375" style="22" customWidth="1"/>
-    <col min="10256" max="10257" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10258" max="10497" width="9.140625" style="22"/>
-    <col min="10498" max="10498" width="5.140625" style="22" customWidth="1"/>
-    <col min="10499" max="10499" width="9.7109375" style="22" customWidth="1"/>
-    <col min="10500" max="10500" width="1.42578125" style="22" customWidth="1"/>
-    <col min="10501" max="10502" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10503" max="10503" width="3.7109375" style="22" customWidth="1"/>
-    <col min="10504" max="10505" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10506" max="10507" width="2.85546875" style="22" customWidth="1"/>
-    <col min="10508" max="10509" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10510" max="10511" width="2.7109375" style="22" customWidth="1"/>
-    <col min="10512" max="10513" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10514" max="10753" width="9.140625" style="22"/>
-    <col min="10754" max="10754" width="5.140625" style="22" customWidth="1"/>
-    <col min="10755" max="10755" width="9.7109375" style="22" customWidth="1"/>
-    <col min="10756" max="10756" width="1.42578125" style="22" customWidth="1"/>
-    <col min="10757" max="10758" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10759" max="10759" width="3.7109375" style="22" customWidth="1"/>
-    <col min="10760" max="10761" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10762" max="10763" width="2.85546875" style="22" customWidth="1"/>
-    <col min="10764" max="10765" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10766" max="10767" width="2.7109375" style="22" customWidth="1"/>
-    <col min="10768" max="10769" width="12.7109375" style="22" customWidth="1"/>
-    <col min="10770" max="11009" width="9.140625" style="22"/>
-    <col min="11010" max="11010" width="5.140625" style="22" customWidth="1"/>
-    <col min="11011" max="11011" width="9.7109375" style="22" customWidth="1"/>
-    <col min="11012" max="11012" width="1.42578125" style="22" customWidth="1"/>
-    <col min="11013" max="11014" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11015" max="11015" width="3.7109375" style="22" customWidth="1"/>
-    <col min="11016" max="11017" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11018" max="11019" width="2.85546875" style="22" customWidth="1"/>
-    <col min="11020" max="11021" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11022" max="11023" width="2.7109375" style="22" customWidth="1"/>
-    <col min="11024" max="11025" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11026" max="11265" width="9.140625" style="22"/>
-    <col min="11266" max="11266" width="5.140625" style="22" customWidth="1"/>
-    <col min="11267" max="11267" width="9.7109375" style="22" customWidth="1"/>
-    <col min="11268" max="11268" width="1.42578125" style="22" customWidth="1"/>
-    <col min="11269" max="11270" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11271" max="11271" width="3.7109375" style="22" customWidth="1"/>
-    <col min="11272" max="11273" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11274" max="11275" width="2.85546875" style="22" customWidth="1"/>
-    <col min="11276" max="11277" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11278" max="11279" width="2.7109375" style="22" customWidth="1"/>
-    <col min="11280" max="11281" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11282" max="11521" width="9.140625" style="22"/>
-    <col min="11522" max="11522" width="5.140625" style="22" customWidth="1"/>
-    <col min="11523" max="11523" width="9.7109375" style="22" customWidth="1"/>
-    <col min="11524" max="11524" width="1.42578125" style="22" customWidth="1"/>
-    <col min="11525" max="11526" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11527" max="11527" width="3.7109375" style="22" customWidth="1"/>
-    <col min="11528" max="11529" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11530" max="11531" width="2.85546875" style="22" customWidth="1"/>
-    <col min="11532" max="11533" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11534" max="11535" width="2.7109375" style="22" customWidth="1"/>
-    <col min="11536" max="11537" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11538" max="11777" width="9.140625" style="22"/>
-    <col min="11778" max="11778" width="5.140625" style="22" customWidth="1"/>
-    <col min="11779" max="11779" width="9.7109375" style="22" customWidth="1"/>
-    <col min="11780" max="11780" width="1.42578125" style="22" customWidth="1"/>
-    <col min="11781" max="11782" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11783" max="11783" width="3.7109375" style="22" customWidth="1"/>
-    <col min="11784" max="11785" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11786" max="11787" width="2.85546875" style="22" customWidth="1"/>
-    <col min="11788" max="11789" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11790" max="11791" width="2.7109375" style="22" customWidth="1"/>
-    <col min="11792" max="11793" width="12.7109375" style="22" customWidth="1"/>
-    <col min="11794" max="12033" width="9.140625" style="22"/>
-    <col min="12034" max="12034" width="5.140625" style="22" customWidth="1"/>
-    <col min="12035" max="12035" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12036" max="12036" width="1.42578125" style="22" customWidth="1"/>
-    <col min="12037" max="12038" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12039" max="12039" width="3.7109375" style="22" customWidth="1"/>
-    <col min="12040" max="12041" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12042" max="12043" width="2.85546875" style="22" customWidth="1"/>
-    <col min="12044" max="12045" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12046" max="12047" width="2.7109375" style="22" customWidth="1"/>
-    <col min="12048" max="12049" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12050" max="12289" width="9.140625" style="22"/>
-    <col min="12290" max="12290" width="5.140625" style="22" customWidth="1"/>
-    <col min="12291" max="12291" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12292" max="12292" width="1.42578125" style="22" customWidth="1"/>
-    <col min="12293" max="12294" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12295" max="12295" width="3.7109375" style="22" customWidth="1"/>
-    <col min="12296" max="12297" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12298" max="12299" width="2.85546875" style="22" customWidth="1"/>
-    <col min="12300" max="12301" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12302" max="12303" width="2.7109375" style="22" customWidth="1"/>
-    <col min="12304" max="12305" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12306" max="12545" width="9.140625" style="22"/>
-    <col min="12546" max="12546" width="5.140625" style="22" customWidth="1"/>
-    <col min="12547" max="12547" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12548" max="12548" width="1.42578125" style="22" customWidth="1"/>
-    <col min="12549" max="12550" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12551" max="12551" width="3.7109375" style="22" customWidth="1"/>
-    <col min="12552" max="12553" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12554" max="12555" width="2.85546875" style="22" customWidth="1"/>
-    <col min="12556" max="12557" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12558" max="12559" width="2.7109375" style="22" customWidth="1"/>
-    <col min="12560" max="12561" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12562" max="12801" width="9.140625" style="22"/>
-    <col min="12802" max="12802" width="5.140625" style="22" customWidth="1"/>
-    <col min="12803" max="12803" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12804" max="12804" width="1.42578125" style="22" customWidth="1"/>
-    <col min="12805" max="12806" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12807" max="12807" width="3.7109375" style="22" customWidth="1"/>
-    <col min="12808" max="12809" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12810" max="12811" width="2.85546875" style="22" customWidth="1"/>
-    <col min="12812" max="12813" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12814" max="12815" width="2.7109375" style="22" customWidth="1"/>
-    <col min="12816" max="12817" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12818" max="13057" width="9.140625" style="22"/>
-    <col min="13058" max="13058" width="5.140625" style="22" customWidth="1"/>
-    <col min="13059" max="13059" width="9.7109375" style="22" customWidth="1"/>
-    <col min="13060" max="13060" width="1.42578125" style="22" customWidth="1"/>
-    <col min="13061" max="13062" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13063" max="13063" width="3.7109375" style="22" customWidth="1"/>
-    <col min="13064" max="13065" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13066" max="13067" width="2.85546875" style="22" customWidth="1"/>
-    <col min="13068" max="13069" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13070" max="13071" width="2.7109375" style="22" customWidth="1"/>
-    <col min="13072" max="13073" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13074" max="13313" width="9.140625" style="22"/>
-    <col min="13314" max="13314" width="5.140625" style="22" customWidth="1"/>
-    <col min="13315" max="13315" width="9.7109375" style="22" customWidth="1"/>
-    <col min="13316" max="13316" width="1.42578125" style="22" customWidth="1"/>
-    <col min="13317" max="13318" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13319" max="13319" width="3.7109375" style="22" customWidth="1"/>
-    <col min="13320" max="13321" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13322" max="13323" width="2.85546875" style="22" customWidth="1"/>
-    <col min="13324" max="13325" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13326" max="13327" width="2.7109375" style="22" customWidth="1"/>
-    <col min="13328" max="13329" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13330" max="13569" width="9.140625" style="22"/>
-    <col min="13570" max="13570" width="5.140625" style="22" customWidth="1"/>
-    <col min="13571" max="13571" width="9.7109375" style="22" customWidth="1"/>
-    <col min="13572" max="13572" width="1.42578125" style="22" customWidth="1"/>
-    <col min="13573" max="13574" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13575" max="13575" width="3.7109375" style="22" customWidth="1"/>
-    <col min="13576" max="13577" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13578" max="13579" width="2.85546875" style="22" customWidth="1"/>
-    <col min="13580" max="13581" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13582" max="13583" width="2.7109375" style="22" customWidth="1"/>
-    <col min="13584" max="13585" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13586" max="13825" width="9.140625" style="22"/>
-    <col min="13826" max="13826" width="5.140625" style="22" customWidth="1"/>
-    <col min="13827" max="13827" width="9.7109375" style="22" customWidth="1"/>
-    <col min="13828" max="13828" width="1.42578125" style="22" customWidth="1"/>
-    <col min="13829" max="13830" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13831" max="13831" width="3.7109375" style="22" customWidth="1"/>
-    <col min="13832" max="13833" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13834" max="13835" width="2.85546875" style="22" customWidth="1"/>
-    <col min="13836" max="13837" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13838" max="13839" width="2.7109375" style="22" customWidth="1"/>
-    <col min="13840" max="13841" width="12.7109375" style="22" customWidth="1"/>
-    <col min="13842" max="14081" width="9.140625" style="22"/>
-    <col min="14082" max="14082" width="5.140625" style="22" customWidth="1"/>
-    <col min="14083" max="14083" width="9.7109375" style="22" customWidth="1"/>
-    <col min="14084" max="14084" width="1.42578125" style="22" customWidth="1"/>
-    <col min="14085" max="14086" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14087" max="14087" width="3.7109375" style="22" customWidth="1"/>
-    <col min="14088" max="14089" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14090" max="14091" width="2.85546875" style="22" customWidth="1"/>
-    <col min="14092" max="14093" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14094" max="14095" width="2.7109375" style="22" customWidth="1"/>
-    <col min="14096" max="14097" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14098" max="14337" width="9.140625" style="22"/>
-    <col min="14338" max="14338" width="5.140625" style="22" customWidth="1"/>
-    <col min="14339" max="14339" width="9.7109375" style="22" customWidth="1"/>
-    <col min="14340" max="14340" width="1.42578125" style="22" customWidth="1"/>
-    <col min="14341" max="14342" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14343" max="14343" width="3.7109375" style="22" customWidth="1"/>
-    <col min="14344" max="14345" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14346" max="14347" width="2.85546875" style="22" customWidth="1"/>
-    <col min="14348" max="14349" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14350" max="14351" width="2.7109375" style="22" customWidth="1"/>
-    <col min="14352" max="14353" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14354" max="14593" width="9.140625" style="22"/>
-    <col min="14594" max="14594" width="5.140625" style="22" customWidth="1"/>
-    <col min="14595" max="14595" width="9.7109375" style="22" customWidth="1"/>
-    <col min="14596" max="14596" width="1.42578125" style="22" customWidth="1"/>
-    <col min="14597" max="14598" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14599" max="14599" width="3.7109375" style="22" customWidth="1"/>
-    <col min="14600" max="14601" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14602" max="14603" width="2.85546875" style="22" customWidth="1"/>
-    <col min="14604" max="14605" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14606" max="14607" width="2.7109375" style="22" customWidth="1"/>
-    <col min="14608" max="14609" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14610" max="14849" width="9.140625" style="22"/>
-    <col min="14850" max="14850" width="5.140625" style="22" customWidth="1"/>
-    <col min="14851" max="14851" width="9.7109375" style="22" customWidth="1"/>
-    <col min="14852" max="14852" width="1.42578125" style="22" customWidth="1"/>
-    <col min="14853" max="14854" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14855" max="14855" width="3.7109375" style="22" customWidth="1"/>
-    <col min="14856" max="14857" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14858" max="14859" width="2.85546875" style="22" customWidth="1"/>
-    <col min="14860" max="14861" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14862" max="14863" width="2.7109375" style="22" customWidth="1"/>
-    <col min="14864" max="14865" width="12.7109375" style="22" customWidth="1"/>
-    <col min="14866" max="15105" width="9.140625" style="22"/>
-    <col min="15106" max="15106" width="5.140625" style="22" customWidth="1"/>
-    <col min="15107" max="15107" width="9.7109375" style="22" customWidth="1"/>
-    <col min="15108" max="15108" width="1.42578125" style="22" customWidth="1"/>
-    <col min="15109" max="15110" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15111" max="15111" width="3.7109375" style="22" customWidth="1"/>
-    <col min="15112" max="15113" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15114" max="15115" width="2.85546875" style="22" customWidth="1"/>
-    <col min="15116" max="15117" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15118" max="15119" width="2.7109375" style="22" customWidth="1"/>
-    <col min="15120" max="15121" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15122" max="15361" width="9.140625" style="22"/>
-    <col min="15362" max="15362" width="5.140625" style="22" customWidth="1"/>
-    <col min="15363" max="15363" width="9.7109375" style="22" customWidth="1"/>
-    <col min="15364" max="15364" width="1.42578125" style="22" customWidth="1"/>
-    <col min="15365" max="15366" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15367" max="15367" width="3.7109375" style="22" customWidth="1"/>
-    <col min="15368" max="15369" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15370" max="15371" width="2.85546875" style="22" customWidth="1"/>
-    <col min="15372" max="15373" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15374" max="15375" width="2.7109375" style="22" customWidth="1"/>
-    <col min="15376" max="15377" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15378" max="15617" width="9.140625" style="22"/>
-    <col min="15618" max="15618" width="5.140625" style="22" customWidth="1"/>
-    <col min="15619" max="15619" width="9.7109375" style="22" customWidth="1"/>
-    <col min="15620" max="15620" width="1.42578125" style="22" customWidth="1"/>
-    <col min="15621" max="15622" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15623" max="15623" width="3.7109375" style="22" customWidth="1"/>
-    <col min="15624" max="15625" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15626" max="15627" width="2.85546875" style="22" customWidth="1"/>
-    <col min="15628" max="15629" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15630" max="15631" width="2.7109375" style="22" customWidth="1"/>
-    <col min="15632" max="15633" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15634" max="15873" width="9.140625" style="22"/>
-    <col min="15874" max="15874" width="5.140625" style="22" customWidth="1"/>
-    <col min="15875" max="15875" width="9.7109375" style="22" customWidth="1"/>
-    <col min="15876" max="15876" width="1.42578125" style="22" customWidth="1"/>
-    <col min="15877" max="15878" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15879" max="15879" width="3.7109375" style="22" customWidth="1"/>
-    <col min="15880" max="15881" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15882" max="15883" width="2.85546875" style="22" customWidth="1"/>
-    <col min="15884" max="15885" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15886" max="15887" width="2.7109375" style="22" customWidth="1"/>
-    <col min="15888" max="15889" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15890" max="16129" width="9.140625" style="22"/>
-    <col min="16130" max="16130" width="5.140625" style="22" customWidth="1"/>
-    <col min="16131" max="16131" width="9.7109375" style="22" customWidth="1"/>
-    <col min="16132" max="16132" width="1.42578125" style="22" customWidth="1"/>
-    <col min="16133" max="16134" width="12.7109375" style="22" customWidth="1"/>
-    <col min="16135" max="16135" width="3.7109375" style="22" customWidth="1"/>
-    <col min="16136" max="16137" width="12.7109375" style="22" customWidth="1"/>
-    <col min="16138" max="16139" width="2.85546875" style="22" customWidth="1"/>
-    <col min="16140" max="16141" width="12.7109375" style="22" customWidth="1"/>
-    <col min="16142" max="16143" width="2.7109375" style="22" customWidth="1"/>
-    <col min="16144" max="16145" width="12.7109375" style="22" customWidth="1"/>
-    <col min="16146" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="10.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="22" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="16" style="22" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="22" customWidth="1"/>
+    <col min="15" max="16" width="2.85546875" style="22" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="22" customWidth="1"/>
+    <col min="19" max="20" width="2.7109375" style="22" customWidth="1"/>
+    <col min="21" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="262" width="9.140625" style="22"/>
+    <col min="263" max="263" width="5.140625" style="22" customWidth="1"/>
+    <col min="264" max="264" width="9.7109375" style="22" customWidth="1"/>
+    <col min="265" max="265" width="1.42578125" style="22" customWidth="1"/>
+    <col min="266" max="267" width="12.7109375" style="22" customWidth="1"/>
+    <col min="268" max="268" width="3.7109375" style="22" customWidth="1"/>
+    <col min="269" max="270" width="12.7109375" style="22" customWidth="1"/>
+    <col min="271" max="272" width="2.85546875" style="22" customWidth="1"/>
+    <col min="273" max="274" width="12.7109375" style="22" customWidth="1"/>
+    <col min="275" max="276" width="2.7109375" style="22" customWidth="1"/>
+    <col min="277" max="278" width="12.7109375" style="22" customWidth="1"/>
+    <col min="279" max="518" width="9.140625" style="22"/>
+    <col min="519" max="519" width="5.140625" style="22" customWidth="1"/>
+    <col min="520" max="520" width="9.7109375" style="22" customWidth="1"/>
+    <col min="521" max="521" width="1.42578125" style="22" customWidth="1"/>
+    <col min="522" max="523" width="12.7109375" style="22" customWidth="1"/>
+    <col min="524" max="524" width="3.7109375" style="22" customWidth="1"/>
+    <col min="525" max="526" width="12.7109375" style="22" customWidth="1"/>
+    <col min="527" max="528" width="2.85546875" style="22" customWidth="1"/>
+    <col min="529" max="530" width="12.7109375" style="22" customWidth="1"/>
+    <col min="531" max="532" width="2.7109375" style="22" customWidth="1"/>
+    <col min="533" max="534" width="12.7109375" style="22" customWidth="1"/>
+    <col min="535" max="774" width="9.140625" style="22"/>
+    <col min="775" max="775" width="5.140625" style="22" customWidth="1"/>
+    <col min="776" max="776" width="9.7109375" style="22" customWidth="1"/>
+    <col min="777" max="777" width="1.42578125" style="22" customWidth="1"/>
+    <col min="778" max="779" width="12.7109375" style="22" customWidth="1"/>
+    <col min="780" max="780" width="3.7109375" style="22" customWidth="1"/>
+    <col min="781" max="782" width="12.7109375" style="22" customWidth="1"/>
+    <col min="783" max="784" width="2.85546875" style="22" customWidth="1"/>
+    <col min="785" max="786" width="12.7109375" style="22" customWidth="1"/>
+    <col min="787" max="788" width="2.7109375" style="22" customWidth="1"/>
+    <col min="789" max="790" width="12.7109375" style="22" customWidth="1"/>
+    <col min="791" max="1030" width="9.140625" style="22"/>
+    <col min="1031" max="1031" width="5.140625" style="22" customWidth="1"/>
+    <col min="1032" max="1032" width="9.7109375" style="22" customWidth="1"/>
+    <col min="1033" max="1033" width="1.42578125" style="22" customWidth="1"/>
+    <col min="1034" max="1035" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1036" max="1036" width="3.7109375" style="22" customWidth="1"/>
+    <col min="1037" max="1038" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1039" max="1040" width="2.85546875" style="22" customWidth="1"/>
+    <col min="1041" max="1042" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1043" max="1044" width="2.7109375" style="22" customWidth="1"/>
+    <col min="1045" max="1046" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1047" max="1286" width="9.140625" style="22"/>
+    <col min="1287" max="1287" width="5.140625" style="22" customWidth="1"/>
+    <col min="1288" max="1288" width="9.7109375" style="22" customWidth="1"/>
+    <col min="1289" max="1289" width="1.42578125" style="22" customWidth="1"/>
+    <col min="1290" max="1291" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1292" max="1292" width="3.7109375" style="22" customWidth="1"/>
+    <col min="1293" max="1294" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1295" max="1296" width="2.85546875" style="22" customWidth="1"/>
+    <col min="1297" max="1298" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1299" max="1300" width="2.7109375" style="22" customWidth="1"/>
+    <col min="1301" max="1302" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1303" max="1542" width="9.140625" style="22"/>
+    <col min="1543" max="1543" width="5.140625" style="22" customWidth="1"/>
+    <col min="1544" max="1544" width="9.7109375" style="22" customWidth="1"/>
+    <col min="1545" max="1545" width="1.42578125" style="22" customWidth="1"/>
+    <col min="1546" max="1547" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1548" max="1548" width="3.7109375" style="22" customWidth="1"/>
+    <col min="1549" max="1550" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1551" max="1552" width="2.85546875" style="22" customWidth="1"/>
+    <col min="1553" max="1554" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1555" max="1556" width="2.7109375" style="22" customWidth="1"/>
+    <col min="1557" max="1558" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1559" max="1798" width="9.140625" style="22"/>
+    <col min="1799" max="1799" width="5.140625" style="22" customWidth="1"/>
+    <col min="1800" max="1800" width="9.7109375" style="22" customWidth="1"/>
+    <col min="1801" max="1801" width="1.42578125" style="22" customWidth="1"/>
+    <col min="1802" max="1803" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1804" max="1804" width="3.7109375" style="22" customWidth="1"/>
+    <col min="1805" max="1806" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1807" max="1808" width="2.85546875" style="22" customWidth="1"/>
+    <col min="1809" max="1810" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1811" max="1812" width="2.7109375" style="22" customWidth="1"/>
+    <col min="1813" max="1814" width="12.7109375" style="22" customWidth="1"/>
+    <col min="1815" max="2054" width="9.140625" style="22"/>
+    <col min="2055" max="2055" width="5.140625" style="22" customWidth="1"/>
+    <col min="2056" max="2056" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2057" max="2057" width="1.42578125" style="22" customWidth="1"/>
+    <col min="2058" max="2059" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2060" max="2060" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2061" max="2062" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2063" max="2064" width="2.85546875" style="22" customWidth="1"/>
+    <col min="2065" max="2066" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2067" max="2068" width="2.7109375" style="22" customWidth="1"/>
+    <col min="2069" max="2070" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2071" max="2310" width="9.140625" style="22"/>
+    <col min="2311" max="2311" width="5.140625" style="22" customWidth="1"/>
+    <col min="2312" max="2312" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2313" max="2313" width="1.42578125" style="22" customWidth="1"/>
+    <col min="2314" max="2315" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2316" max="2316" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2317" max="2318" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2319" max="2320" width="2.85546875" style="22" customWidth="1"/>
+    <col min="2321" max="2322" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2323" max="2324" width="2.7109375" style="22" customWidth="1"/>
+    <col min="2325" max="2326" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2327" max="2566" width="9.140625" style="22"/>
+    <col min="2567" max="2567" width="5.140625" style="22" customWidth="1"/>
+    <col min="2568" max="2568" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2569" max="2569" width="1.42578125" style="22" customWidth="1"/>
+    <col min="2570" max="2571" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2572" max="2572" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2573" max="2574" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2575" max="2576" width="2.85546875" style="22" customWidth="1"/>
+    <col min="2577" max="2578" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2579" max="2580" width="2.7109375" style="22" customWidth="1"/>
+    <col min="2581" max="2582" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2583" max="2822" width="9.140625" style="22"/>
+    <col min="2823" max="2823" width="5.140625" style="22" customWidth="1"/>
+    <col min="2824" max="2824" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2825" max="2825" width="1.42578125" style="22" customWidth="1"/>
+    <col min="2826" max="2827" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2828" max="2828" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2829" max="2830" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2831" max="2832" width="2.85546875" style="22" customWidth="1"/>
+    <col min="2833" max="2834" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2835" max="2836" width="2.7109375" style="22" customWidth="1"/>
+    <col min="2837" max="2838" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2839" max="3078" width="9.140625" style="22"/>
+    <col min="3079" max="3079" width="5.140625" style="22" customWidth="1"/>
+    <col min="3080" max="3080" width="9.7109375" style="22" customWidth="1"/>
+    <col min="3081" max="3081" width="1.42578125" style="22" customWidth="1"/>
+    <col min="3082" max="3083" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3084" max="3084" width="3.7109375" style="22" customWidth="1"/>
+    <col min="3085" max="3086" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3087" max="3088" width="2.85546875" style="22" customWidth="1"/>
+    <col min="3089" max="3090" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3091" max="3092" width="2.7109375" style="22" customWidth="1"/>
+    <col min="3093" max="3094" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3095" max="3334" width="9.140625" style="22"/>
+    <col min="3335" max="3335" width="5.140625" style="22" customWidth="1"/>
+    <col min="3336" max="3336" width="9.7109375" style="22" customWidth="1"/>
+    <col min="3337" max="3337" width="1.42578125" style="22" customWidth="1"/>
+    <col min="3338" max="3339" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3340" max="3340" width="3.7109375" style="22" customWidth="1"/>
+    <col min="3341" max="3342" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3343" max="3344" width="2.85546875" style="22" customWidth="1"/>
+    <col min="3345" max="3346" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3347" max="3348" width="2.7109375" style="22" customWidth="1"/>
+    <col min="3349" max="3350" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3351" max="3590" width="9.140625" style="22"/>
+    <col min="3591" max="3591" width="5.140625" style="22" customWidth="1"/>
+    <col min="3592" max="3592" width="9.7109375" style="22" customWidth="1"/>
+    <col min="3593" max="3593" width="1.42578125" style="22" customWidth="1"/>
+    <col min="3594" max="3595" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3596" max="3596" width="3.7109375" style="22" customWidth="1"/>
+    <col min="3597" max="3598" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3599" max="3600" width="2.85546875" style="22" customWidth="1"/>
+    <col min="3601" max="3602" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3603" max="3604" width="2.7109375" style="22" customWidth="1"/>
+    <col min="3605" max="3606" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3607" max="3846" width="9.140625" style="22"/>
+    <col min="3847" max="3847" width="5.140625" style="22" customWidth="1"/>
+    <col min="3848" max="3848" width="9.7109375" style="22" customWidth="1"/>
+    <col min="3849" max="3849" width="1.42578125" style="22" customWidth="1"/>
+    <col min="3850" max="3851" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3852" max="3852" width="3.7109375" style="22" customWidth="1"/>
+    <col min="3853" max="3854" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3855" max="3856" width="2.85546875" style="22" customWidth="1"/>
+    <col min="3857" max="3858" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3859" max="3860" width="2.7109375" style="22" customWidth="1"/>
+    <col min="3861" max="3862" width="12.7109375" style="22" customWidth="1"/>
+    <col min="3863" max="4102" width="9.140625" style="22"/>
+    <col min="4103" max="4103" width="5.140625" style="22" customWidth="1"/>
+    <col min="4104" max="4104" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4105" max="4105" width="1.42578125" style="22" customWidth="1"/>
+    <col min="4106" max="4107" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4108" max="4108" width="3.7109375" style="22" customWidth="1"/>
+    <col min="4109" max="4110" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4111" max="4112" width="2.85546875" style="22" customWidth="1"/>
+    <col min="4113" max="4114" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4115" max="4116" width="2.7109375" style="22" customWidth="1"/>
+    <col min="4117" max="4118" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4119" max="4358" width="9.140625" style="22"/>
+    <col min="4359" max="4359" width="5.140625" style="22" customWidth="1"/>
+    <col min="4360" max="4360" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4361" max="4361" width="1.42578125" style="22" customWidth="1"/>
+    <col min="4362" max="4363" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4364" max="4364" width="3.7109375" style="22" customWidth="1"/>
+    <col min="4365" max="4366" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4367" max="4368" width="2.85546875" style="22" customWidth="1"/>
+    <col min="4369" max="4370" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4371" max="4372" width="2.7109375" style="22" customWidth="1"/>
+    <col min="4373" max="4374" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4375" max="4614" width="9.140625" style="22"/>
+    <col min="4615" max="4615" width="5.140625" style="22" customWidth="1"/>
+    <col min="4616" max="4616" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4617" max="4617" width="1.42578125" style="22" customWidth="1"/>
+    <col min="4618" max="4619" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4620" max="4620" width="3.7109375" style="22" customWidth="1"/>
+    <col min="4621" max="4622" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4623" max="4624" width="2.85546875" style="22" customWidth="1"/>
+    <col min="4625" max="4626" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4627" max="4628" width="2.7109375" style="22" customWidth="1"/>
+    <col min="4629" max="4630" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4631" max="4870" width="9.140625" style="22"/>
+    <col min="4871" max="4871" width="5.140625" style="22" customWidth="1"/>
+    <col min="4872" max="4872" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4873" max="4873" width="1.42578125" style="22" customWidth="1"/>
+    <col min="4874" max="4875" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4876" max="4876" width="3.7109375" style="22" customWidth="1"/>
+    <col min="4877" max="4878" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4879" max="4880" width="2.85546875" style="22" customWidth="1"/>
+    <col min="4881" max="4882" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4883" max="4884" width="2.7109375" style="22" customWidth="1"/>
+    <col min="4885" max="4886" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4887" max="5126" width="9.140625" style="22"/>
+    <col min="5127" max="5127" width="5.140625" style="22" customWidth="1"/>
+    <col min="5128" max="5128" width="9.7109375" style="22" customWidth="1"/>
+    <col min="5129" max="5129" width="1.42578125" style="22" customWidth="1"/>
+    <col min="5130" max="5131" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5132" max="5132" width="3.7109375" style="22" customWidth="1"/>
+    <col min="5133" max="5134" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5135" max="5136" width="2.85546875" style="22" customWidth="1"/>
+    <col min="5137" max="5138" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5139" max="5140" width="2.7109375" style="22" customWidth="1"/>
+    <col min="5141" max="5142" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5143" max="5382" width="9.140625" style="22"/>
+    <col min="5383" max="5383" width="5.140625" style="22" customWidth="1"/>
+    <col min="5384" max="5384" width="9.7109375" style="22" customWidth="1"/>
+    <col min="5385" max="5385" width="1.42578125" style="22" customWidth="1"/>
+    <col min="5386" max="5387" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5388" max="5388" width="3.7109375" style="22" customWidth="1"/>
+    <col min="5389" max="5390" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5391" max="5392" width="2.85546875" style="22" customWidth="1"/>
+    <col min="5393" max="5394" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5395" max="5396" width="2.7109375" style="22" customWidth="1"/>
+    <col min="5397" max="5398" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5399" max="5638" width="9.140625" style="22"/>
+    <col min="5639" max="5639" width="5.140625" style="22" customWidth="1"/>
+    <col min="5640" max="5640" width="9.7109375" style="22" customWidth="1"/>
+    <col min="5641" max="5641" width="1.42578125" style="22" customWidth="1"/>
+    <col min="5642" max="5643" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5644" max="5644" width="3.7109375" style="22" customWidth="1"/>
+    <col min="5645" max="5646" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5647" max="5648" width="2.85546875" style="22" customWidth="1"/>
+    <col min="5649" max="5650" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5651" max="5652" width="2.7109375" style="22" customWidth="1"/>
+    <col min="5653" max="5654" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5655" max="5894" width="9.140625" style="22"/>
+    <col min="5895" max="5895" width="5.140625" style="22" customWidth="1"/>
+    <col min="5896" max="5896" width="9.7109375" style="22" customWidth="1"/>
+    <col min="5897" max="5897" width="1.42578125" style="22" customWidth="1"/>
+    <col min="5898" max="5899" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5900" max="5900" width="3.7109375" style="22" customWidth="1"/>
+    <col min="5901" max="5902" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5903" max="5904" width="2.85546875" style="22" customWidth="1"/>
+    <col min="5905" max="5906" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5907" max="5908" width="2.7109375" style="22" customWidth="1"/>
+    <col min="5909" max="5910" width="12.7109375" style="22" customWidth="1"/>
+    <col min="5911" max="6150" width="9.140625" style="22"/>
+    <col min="6151" max="6151" width="5.140625" style="22" customWidth="1"/>
+    <col min="6152" max="6152" width="9.7109375" style="22" customWidth="1"/>
+    <col min="6153" max="6153" width="1.42578125" style="22" customWidth="1"/>
+    <col min="6154" max="6155" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6156" max="6156" width="3.7109375" style="22" customWidth="1"/>
+    <col min="6157" max="6158" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6159" max="6160" width="2.85546875" style="22" customWidth="1"/>
+    <col min="6161" max="6162" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6163" max="6164" width="2.7109375" style="22" customWidth="1"/>
+    <col min="6165" max="6166" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6167" max="6406" width="9.140625" style="22"/>
+    <col min="6407" max="6407" width="5.140625" style="22" customWidth="1"/>
+    <col min="6408" max="6408" width="9.7109375" style="22" customWidth="1"/>
+    <col min="6409" max="6409" width="1.42578125" style="22" customWidth="1"/>
+    <col min="6410" max="6411" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6412" max="6412" width="3.7109375" style="22" customWidth="1"/>
+    <col min="6413" max="6414" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6415" max="6416" width="2.85546875" style="22" customWidth="1"/>
+    <col min="6417" max="6418" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6419" max="6420" width="2.7109375" style="22" customWidth="1"/>
+    <col min="6421" max="6422" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6423" max="6662" width="9.140625" style="22"/>
+    <col min="6663" max="6663" width="5.140625" style="22" customWidth="1"/>
+    <col min="6664" max="6664" width="9.7109375" style="22" customWidth="1"/>
+    <col min="6665" max="6665" width="1.42578125" style="22" customWidth="1"/>
+    <col min="6666" max="6667" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6668" max="6668" width="3.7109375" style="22" customWidth="1"/>
+    <col min="6669" max="6670" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6671" max="6672" width="2.85546875" style="22" customWidth="1"/>
+    <col min="6673" max="6674" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6675" max="6676" width="2.7109375" style="22" customWidth="1"/>
+    <col min="6677" max="6678" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6679" max="6918" width="9.140625" style="22"/>
+    <col min="6919" max="6919" width="5.140625" style="22" customWidth="1"/>
+    <col min="6920" max="6920" width="9.7109375" style="22" customWidth="1"/>
+    <col min="6921" max="6921" width="1.42578125" style="22" customWidth="1"/>
+    <col min="6922" max="6923" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6924" max="6924" width="3.7109375" style="22" customWidth="1"/>
+    <col min="6925" max="6926" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6927" max="6928" width="2.85546875" style="22" customWidth="1"/>
+    <col min="6929" max="6930" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6931" max="6932" width="2.7109375" style="22" customWidth="1"/>
+    <col min="6933" max="6934" width="12.7109375" style="22" customWidth="1"/>
+    <col min="6935" max="7174" width="9.140625" style="22"/>
+    <col min="7175" max="7175" width="5.140625" style="22" customWidth="1"/>
+    <col min="7176" max="7176" width="9.7109375" style="22" customWidth="1"/>
+    <col min="7177" max="7177" width="1.42578125" style="22" customWidth="1"/>
+    <col min="7178" max="7179" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7180" max="7180" width="3.7109375" style="22" customWidth="1"/>
+    <col min="7181" max="7182" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7183" max="7184" width="2.85546875" style="22" customWidth="1"/>
+    <col min="7185" max="7186" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7187" max="7188" width="2.7109375" style="22" customWidth="1"/>
+    <col min="7189" max="7190" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7191" max="7430" width="9.140625" style="22"/>
+    <col min="7431" max="7431" width="5.140625" style="22" customWidth="1"/>
+    <col min="7432" max="7432" width="9.7109375" style="22" customWidth="1"/>
+    <col min="7433" max="7433" width="1.42578125" style="22" customWidth="1"/>
+    <col min="7434" max="7435" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7436" max="7436" width="3.7109375" style="22" customWidth="1"/>
+    <col min="7437" max="7438" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7439" max="7440" width="2.85546875" style="22" customWidth="1"/>
+    <col min="7441" max="7442" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7443" max="7444" width="2.7109375" style="22" customWidth="1"/>
+    <col min="7445" max="7446" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7447" max="7686" width="9.140625" style="22"/>
+    <col min="7687" max="7687" width="5.140625" style="22" customWidth="1"/>
+    <col min="7688" max="7688" width="9.7109375" style="22" customWidth="1"/>
+    <col min="7689" max="7689" width="1.42578125" style="22" customWidth="1"/>
+    <col min="7690" max="7691" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7692" max="7692" width="3.7109375" style="22" customWidth="1"/>
+    <col min="7693" max="7694" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7695" max="7696" width="2.85546875" style="22" customWidth="1"/>
+    <col min="7697" max="7698" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7699" max="7700" width="2.7109375" style="22" customWidth="1"/>
+    <col min="7701" max="7702" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7703" max="7942" width="9.140625" style="22"/>
+    <col min="7943" max="7943" width="5.140625" style="22" customWidth="1"/>
+    <col min="7944" max="7944" width="9.7109375" style="22" customWidth="1"/>
+    <col min="7945" max="7945" width="1.42578125" style="22" customWidth="1"/>
+    <col min="7946" max="7947" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7948" max="7948" width="3.7109375" style="22" customWidth="1"/>
+    <col min="7949" max="7950" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7951" max="7952" width="2.85546875" style="22" customWidth="1"/>
+    <col min="7953" max="7954" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7955" max="7956" width="2.7109375" style="22" customWidth="1"/>
+    <col min="7957" max="7958" width="12.7109375" style="22" customWidth="1"/>
+    <col min="7959" max="8198" width="9.140625" style="22"/>
+    <col min="8199" max="8199" width="5.140625" style="22" customWidth="1"/>
+    <col min="8200" max="8200" width="9.7109375" style="22" customWidth="1"/>
+    <col min="8201" max="8201" width="1.42578125" style="22" customWidth="1"/>
+    <col min="8202" max="8203" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8204" max="8204" width="3.7109375" style="22" customWidth="1"/>
+    <col min="8205" max="8206" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8207" max="8208" width="2.85546875" style="22" customWidth="1"/>
+    <col min="8209" max="8210" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8211" max="8212" width="2.7109375" style="22" customWidth="1"/>
+    <col min="8213" max="8214" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8215" max="8454" width="9.140625" style="22"/>
+    <col min="8455" max="8455" width="5.140625" style="22" customWidth="1"/>
+    <col min="8456" max="8456" width="9.7109375" style="22" customWidth="1"/>
+    <col min="8457" max="8457" width="1.42578125" style="22" customWidth="1"/>
+    <col min="8458" max="8459" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8460" max="8460" width="3.7109375" style="22" customWidth="1"/>
+    <col min="8461" max="8462" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8463" max="8464" width="2.85546875" style="22" customWidth="1"/>
+    <col min="8465" max="8466" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8467" max="8468" width="2.7109375" style="22" customWidth="1"/>
+    <col min="8469" max="8470" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8471" max="8710" width="9.140625" style="22"/>
+    <col min="8711" max="8711" width="5.140625" style="22" customWidth="1"/>
+    <col min="8712" max="8712" width="9.7109375" style="22" customWidth="1"/>
+    <col min="8713" max="8713" width="1.42578125" style="22" customWidth="1"/>
+    <col min="8714" max="8715" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8716" max="8716" width="3.7109375" style="22" customWidth="1"/>
+    <col min="8717" max="8718" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8719" max="8720" width="2.85546875" style="22" customWidth="1"/>
+    <col min="8721" max="8722" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8723" max="8724" width="2.7109375" style="22" customWidth="1"/>
+    <col min="8725" max="8726" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8727" max="8966" width="9.140625" style="22"/>
+    <col min="8967" max="8967" width="5.140625" style="22" customWidth="1"/>
+    <col min="8968" max="8968" width="9.7109375" style="22" customWidth="1"/>
+    <col min="8969" max="8969" width="1.42578125" style="22" customWidth="1"/>
+    <col min="8970" max="8971" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8972" max="8972" width="3.7109375" style="22" customWidth="1"/>
+    <col min="8973" max="8974" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8975" max="8976" width="2.85546875" style="22" customWidth="1"/>
+    <col min="8977" max="8978" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8979" max="8980" width="2.7109375" style="22" customWidth="1"/>
+    <col min="8981" max="8982" width="12.7109375" style="22" customWidth="1"/>
+    <col min="8983" max="9222" width="9.140625" style="22"/>
+    <col min="9223" max="9223" width="5.140625" style="22" customWidth="1"/>
+    <col min="9224" max="9224" width="9.7109375" style="22" customWidth="1"/>
+    <col min="9225" max="9225" width="1.42578125" style="22" customWidth="1"/>
+    <col min="9226" max="9227" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9228" max="9228" width="3.7109375" style="22" customWidth="1"/>
+    <col min="9229" max="9230" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9231" max="9232" width="2.85546875" style="22" customWidth="1"/>
+    <col min="9233" max="9234" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9235" max="9236" width="2.7109375" style="22" customWidth="1"/>
+    <col min="9237" max="9238" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9239" max="9478" width="9.140625" style="22"/>
+    <col min="9479" max="9479" width="5.140625" style="22" customWidth="1"/>
+    <col min="9480" max="9480" width="9.7109375" style="22" customWidth="1"/>
+    <col min="9481" max="9481" width="1.42578125" style="22" customWidth="1"/>
+    <col min="9482" max="9483" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9484" max="9484" width="3.7109375" style="22" customWidth="1"/>
+    <col min="9485" max="9486" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9487" max="9488" width="2.85546875" style="22" customWidth="1"/>
+    <col min="9489" max="9490" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9491" max="9492" width="2.7109375" style="22" customWidth="1"/>
+    <col min="9493" max="9494" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9495" max="9734" width="9.140625" style="22"/>
+    <col min="9735" max="9735" width="5.140625" style="22" customWidth="1"/>
+    <col min="9736" max="9736" width="9.7109375" style="22" customWidth="1"/>
+    <col min="9737" max="9737" width="1.42578125" style="22" customWidth="1"/>
+    <col min="9738" max="9739" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9740" max="9740" width="3.7109375" style="22" customWidth="1"/>
+    <col min="9741" max="9742" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9743" max="9744" width="2.85546875" style="22" customWidth="1"/>
+    <col min="9745" max="9746" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9747" max="9748" width="2.7109375" style="22" customWidth="1"/>
+    <col min="9749" max="9750" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9751" max="9990" width="9.140625" style="22"/>
+    <col min="9991" max="9991" width="5.140625" style="22" customWidth="1"/>
+    <col min="9992" max="9992" width="9.7109375" style="22" customWidth="1"/>
+    <col min="9993" max="9993" width="1.42578125" style="22" customWidth="1"/>
+    <col min="9994" max="9995" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9996" max="9996" width="3.7109375" style="22" customWidth="1"/>
+    <col min="9997" max="9998" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9999" max="10000" width="2.85546875" style="22" customWidth="1"/>
+    <col min="10001" max="10002" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10003" max="10004" width="2.7109375" style="22" customWidth="1"/>
+    <col min="10005" max="10006" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10007" max="10246" width="9.140625" style="22"/>
+    <col min="10247" max="10247" width="5.140625" style="22" customWidth="1"/>
+    <col min="10248" max="10248" width="9.7109375" style="22" customWidth="1"/>
+    <col min="10249" max="10249" width="1.42578125" style="22" customWidth="1"/>
+    <col min="10250" max="10251" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10252" max="10252" width="3.7109375" style="22" customWidth="1"/>
+    <col min="10253" max="10254" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10255" max="10256" width="2.85546875" style="22" customWidth="1"/>
+    <col min="10257" max="10258" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10259" max="10260" width="2.7109375" style="22" customWidth="1"/>
+    <col min="10261" max="10262" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10263" max="10502" width="9.140625" style="22"/>
+    <col min="10503" max="10503" width="5.140625" style="22" customWidth="1"/>
+    <col min="10504" max="10504" width="9.7109375" style="22" customWidth="1"/>
+    <col min="10505" max="10505" width="1.42578125" style="22" customWidth="1"/>
+    <col min="10506" max="10507" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10508" max="10508" width="3.7109375" style="22" customWidth="1"/>
+    <col min="10509" max="10510" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10511" max="10512" width="2.85546875" style="22" customWidth="1"/>
+    <col min="10513" max="10514" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10515" max="10516" width="2.7109375" style="22" customWidth="1"/>
+    <col min="10517" max="10518" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10519" max="10758" width="9.140625" style="22"/>
+    <col min="10759" max="10759" width="5.140625" style="22" customWidth="1"/>
+    <col min="10760" max="10760" width="9.7109375" style="22" customWidth="1"/>
+    <col min="10761" max="10761" width="1.42578125" style="22" customWidth="1"/>
+    <col min="10762" max="10763" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10764" max="10764" width="3.7109375" style="22" customWidth="1"/>
+    <col min="10765" max="10766" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10767" max="10768" width="2.85546875" style="22" customWidth="1"/>
+    <col min="10769" max="10770" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10771" max="10772" width="2.7109375" style="22" customWidth="1"/>
+    <col min="10773" max="10774" width="12.7109375" style="22" customWidth="1"/>
+    <col min="10775" max="11014" width="9.140625" style="22"/>
+    <col min="11015" max="11015" width="5.140625" style="22" customWidth="1"/>
+    <col min="11016" max="11016" width="9.7109375" style="22" customWidth="1"/>
+    <col min="11017" max="11017" width="1.42578125" style="22" customWidth="1"/>
+    <col min="11018" max="11019" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11020" max="11020" width="3.7109375" style="22" customWidth="1"/>
+    <col min="11021" max="11022" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11023" max="11024" width="2.85546875" style="22" customWidth="1"/>
+    <col min="11025" max="11026" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11027" max="11028" width="2.7109375" style="22" customWidth="1"/>
+    <col min="11029" max="11030" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11031" max="11270" width="9.140625" style="22"/>
+    <col min="11271" max="11271" width="5.140625" style="22" customWidth="1"/>
+    <col min="11272" max="11272" width="9.7109375" style="22" customWidth="1"/>
+    <col min="11273" max="11273" width="1.42578125" style="22" customWidth="1"/>
+    <col min="11274" max="11275" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11276" max="11276" width="3.7109375" style="22" customWidth="1"/>
+    <col min="11277" max="11278" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11279" max="11280" width="2.85546875" style="22" customWidth="1"/>
+    <col min="11281" max="11282" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11283" max="11284" width="2.7109375" style="22" customWidth="1"/>
+    <col min="11285" max="11286" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11287" max="11526" width="9.140625" style="22"/>
+    <col min="11527" max="11527" width="5.140625" style="22" customWidth="1"/>
+    <col min="11528" max="11528" width="9.7109375" style="22" customWidth="1"/>
+    <col min="11529" max="11529" width="1.42578125" style="22" customWidth="1"/>
+    <col min="11530" max="11531" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11532" max="11532" width="3.7109375" style="22" customWidth="1"/>
+    <col min="11533" max="11534" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11535" max="11536" width="2.85546875" style="22" customWidth="1"/>
+    <col min="11537" max="11538" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11539" max="11540" width="2.7109375" style="22" customWidth="1"/>
+    <col min="11541" max="11542" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11543" max="11782" width="9.140625" style="22"/>
+    <col min="11783" max="11783" width="5.140625" style="22" customWidth="1"/>
+    <col min="11784" max="11784" width="9.7109375" style="22" customWidth="1"/>
+    <col min="11785" max="11785" width="1.42578125" style="22" customWidth="1"/>
+    <col min="11786" max="11787" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11788" max="11788" width="3.7109375" style="22" customWidth="1"/>
+    <col min="11789" max="11790" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11791" max="11792" width="2.85546875" style="22" customWidth="1"/>
+    <col min="11793" max="11794" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11795" max="11796" width="2.7109375" style="22" customWidth="1"/>
+    <col min="11797" max="11798" width="12.7109375" style="22" customWidth="1"/>
+    <col min="11799" max="12038" width="9.140625" style="22"/>
+    <col min="12039" max="12039" width="5.140625" style="22" customWidth="1"/>
+    <col min="12040" max="12040" width="9.7109375" style="22" customWidth="1"/>
+    <col min="12041" max="12041" width="1.42578125" style="22" customWidth="1"/>
+    <col min="12042" max="12043" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12044" max="12044" width="3.7109375" style="22" customWidth="1"/>
+    <col min="12045" max="12046" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12047" max="12048" width="2.85546875" style="22" customWidth="1"/>
+    <col min="12049" max="12050" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12051" max="12052" width="2.7109375" style="22" customWidth="1"/>
+    <col min="12053" max="12054" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12055" max="12294" width="9.140625" style="22"/>
+    <col min="12295" max="12295" width="5.140625" style="22" customWidth="1"/>
+    <col min="12296" max="12296" width="9.7109375" style="22" customWidth="1"/>
+    <col min="12297" max="12297" width="1.42578125" style="22" customWidth="1"/>
+    <col min="12298" max="12299" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12300" max="12300" width="3.7109375" style="22" customWidth="1"/>
+    <col min="12301" max="12302" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12303" max="12304" width="2.85546875" style="22" customWidth="1"/>
+    <col min="12305" max="12306" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12307" max="12308" width="2.7109375" style="22" customWidth="1"/>
+    <col min="12309" max="12310" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12311" max="12550" width="9.140625" style="22"/>
+    <col min="12551" max="12551" width="5.140625" style="22" customWidth="1"/>
+    <col min="12552" max="12552" width="9.7109375" style="22" customWidth="1"/>
+    <col min="12553" max="12553" width="1.42578125" style="22" customWidth="1"/>
+    <col min="12554" max="12555" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12556" max="12556" width="3.7109375" style="22" customWidth="1"/>
+    <col min="12557" max="12558" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12559" max="12560" width="2.85546875" style="22" customWidth="1"/>
+    <col min="12561" max="12562" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12563" max="12564" width="2.7109375" style="22" customWidth="1"/>
+    <col min="12565" max="12566" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12567" max="12806" width="9.140625" style="22"/>
+    <col min="12807" max="12807" width="5.140625" style="22" customWidth="1"/>
+    <col min="12808" max="12808" width="9.7109375" style="22" customWidth="1"/>
+    <col min="12809" max="12809" width="1.42578125" style="22" customWidth="1"/>
+    <col min="12810" max="12811" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12812" max="12812" width="3.7109375" style="22" customWidth="1"/>
+    <col min="12813" max="12814" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12815" max="12816" width="2.85546875" style="22" customWidth="1"/>
+    <col min="12817" max="12818" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12819" max="12820" width="2.7109375" style="22" customWidth="1"/>
+    <col min="12821" max="12822" width="12.7109375" style="22" customWidth="1"/>
+    <col min="12823" max="13062" width="9.140625" style="22"/>
+    <col min="13063" max="13063" width="5.140625" style="22" customWidth="1"/>
+    <col min="13064" max="13064" width="9.7109375" style="22" customWidth="1"/>
+    <col min="13065" max="13065" width="1.42578125" style="22" customWidth="1"/>
+    <col min="13066" max="13067" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13068" max="13068" width="3.7109375" style="22" customWidth="1"/>
+    <col min="13069" max="13070" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13071" max="13072" width="2.85546875" style="22" customWidth="1"/>
+    <col min="13073" max="13074" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13075" max="13076" width="2.7109375" style="22" customWidth="1"/>
+    <col min="13077" max="13078" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13079" max="13318" width="9.140625" style="22"/>
+    <col min="13319" max="13319" width="5.140625" style="22" customWidth="1"/>
+    <col min="13320" max="13320" width="9.7109375" style="22" customWidth="1"/>
+    <col min="13321" max="13321" width="1.42578125" style="22" customWidth="1"/>
+    <col min="13322" max="13323" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13324" max="13324" width="3.7109375" style="22" customWidth="1"/>
+    <col min="13325" max="13326" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13327" max="13328" width="2.85546875" style="22" customWidth="1"/>
+    <col min="13329" max="13330" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13331" max="13332" width="2.7109375" style="22" customWidth="1"/>
+    <col min="13333" max="13334" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13335" max="13574" width="9.140625" style="22"/>
+    <col min="13575" max="13575" width="5.140625" style="22" customWidth="1"/>
+    <col min="13576" max="13576" width="9.7109375" style="22" customWidth="1"/>
+    <col min="13577" max="13577" width="1.42578125" style="22" customWidth="1"/>
+    <col min="13578" max="13579" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13580" max="13580" width="3.7109375" style="22" customWidth="1"/>
+    <col min="13581" max="13582" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13583" max="13584" width="2.85546875" style="22" customWidth="1"/>
+    <col min="13585" max="13586" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13587" max="13588" width="2.7109375" style="22" customWidth="1"/>
+    <col min="13589" max="13590" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13591" max="13830" width="9.140625" style="22"/>
+    <col min="13831" max="13831" width="5.140625" style="22" customWidth="1"/>
+    <col min="13832" max="13832" width="9.7109375" style="22" customWidth="1"/>
+    <col min="13833" max="13833" width="1.42578125" style="22" customWidth="1"/>
+    <col min="13834" max="13835" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13836" max="13836" width="3.7109375" style="22" customWidth="1"/>
+    <col min="13837" max="13838" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13839" max="13840" width="2.85546875" style="22" customWidth="1"/>
+    <col min="13841" max="13842" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13843" max="13844" width="2.7109375" style="22" customWidth="1"/>
+    <col min="13845" max="13846" width="12.7109375" style="22" customWidth="1"/>
+    <col min="13847" max="14086" width="9.140625" style="22"/>
+    <col min="14087" max="14087" width="5.140625" style="22" customWidth="1"/>
+    <col min="14088" max="14088" width="9.7109375" style="22" customWidth="1"/>
+    <col min="14089" max="14089" width="1.42578125" style="22" customWidth="1"/>
+    <col min="14090" max="14091" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14092" max="14092" width="3.7109375" style="22" customWidth="1"/>
+    <col min="14093" max="14094" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14095" max="14096" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14097" max="14098" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14099" max="14100" width="2.7109375" style="22" customWidth="1"/>
+    <col min="14101" max="14102" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14103" max="14342" width="9.140625" style="22"/>
+    <col min="14343" max="14343" width="5.140625" style="22" customWidth="1"/>
+    <col min="14344" max="14344" width="9.7109375" style="22" customWidth="1"/>
+    <col min="14345" max="14345" width="1.42578125" style="22" customWidth="1"/>
+    <col min="14346" max="14347" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14348" max="14348" width="3.7109375" style="22" customWidth="1"/>
+    <col min="14349" max="14350" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14351" max="14352" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14353" max="14354" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14355" max="14356" width="2.7109375" style="22" customWidth="1"/>
+    <col min="14357" max="14358" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14359" max="14598" width="9.140625" style="22"/>
+    <col min="14599" max="14599" width="5.140625" style="22" customWidth="1"/>
+    <col min="14600" max="14600" width="9.7109375" style="22" customWidth="1"/>
+    <col min="14601" max="14601" width="1.42578125" style="22" customWidth="1"/>
+    <col min="14602" max="14603" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14604" max="14604" width="3.7109375" style="22" customWidth="1"/>
+    <col min="14605" max="14606" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14607" max="14608" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14609" max="14610" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14611" max="14612" width="2.7109375" style="22" customWidth="1"/>
+    <col min="14613" max="14614" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14615" max="14854" width="9.140625" style="22"/>
+    <col min="14855" max="14855" width="5.140625" style="22" customWidth="1"/>
+    <col min="14856" max="14856" width="9.7109375" style="22" customWidth="1"/>
+    <col min="14857" max="14857" width="1.42578125" style="22" customWidth="1"/>
+    <col min="14858" max="14859" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14860" max="14860" width="3.7109375" style="22" customWidth="1"/>
+    <col min="14861" max="14862" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14863" max="14864" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14865" max="14866" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14867" max="14868" width="2.7109375" style="22" customWidth="1"/>
+    <col min="14869" max="14870" width="12.7109375" style="22" customWidth="1"/>
+    <col min="14871" max="15110" width="9.140625" style="22"/>
+    <col min="15111" max="15111" width="5.140625" style="22" customWidth="1"/>
+    <col min="15112" max="15112" width="9.7109375" style="22" customWidth="1"/>
+    <col min="15113" max="15113" width="1.42578125" style="22" customWidth="1"/>
+    <col min="15114" max="15115" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15116" max="15116" width="3.7109375" style="22" customWidth="1"/>
+    <col min="15117" max="15118" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15119" max="15120" width="2.85546875" style="22" customWidth="1"/>
+    <col min="15121" max="15122" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15123" max="15124" width="2.7109375" style="22" customWidth="1"/>
+    <col min="15125" max="15126" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15127" max="15366" width="9.140625" style="22"/>
+    <col min="15367" max="15367" width="5.140625" style="22" customWidth="1"/>
+    <col min="15368" max="15368" width="9.7109375" style="22" customWidth="1"/>
+    <col min="15369" max="15369" width="1.42578125" style="22" customWidth="1"/>
+    <col min="15370" max="15371" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15372" max="15372" width="3.7109375" style="22" customWidth="1"/>
+    <col min="15373" max="15374" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15375" max="15376" width="2.85546875" style="22" customWidth="1"/>
+    <col min="15377" max="15378" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15379" max="15380" width="2.7109375" style="22" customWidth="1"/>
+    <col min="15381" max="15382" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15383" max="15622" width="9.140625" style="22"/>
+    <col min="15623" max="15623" width="5.140625" style="22" customWidth="1"/>
+    <col min="15624" max="15624" width="9.7109375" style="22" customWidth="1"/>
+    <col min="15625" max="15625" width="1.42578125" style="22" customWidth="1"/>
+    <col min="15626" max="15627" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15628" max="15628" width="3.7109375" style="22" customWidth="1"/>
+    <col min="15629" max="15630" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15631" max="15632" width="2.85546875" style="22" customWidth="1"/>
+    <col min="15633" max="15634" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15635" max="15636" width="2.7109375" style="22" customWidth="1"/>
+    <col min="15637" max="15638" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15639" max="15878" width="9.140625" style="22"/>
+    <col min="15879" max="15879" width="5.140625" style="22" customWidth="1"/>
+    <col min="15880" max="15880" width="9.7109375" style="22" customWidth="1"/>
+    <col min="15881" max="15881" width="1.42578125" style="22" customWidth="1"/>
+    <col min="15882" max="15883" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15884" max="15884" width="3.7109375" style="22" customWidth="1"/>
+    <col min="15885" max="15886" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15887" max="15888" width="2.85546875" style="22" customWidth="1"/>
+    <col min="15889" max="15890" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15891" max="15892" width="2.7109375" style="22" customWidth="1"/>
+    <col min="15893" max="15894" width="12.7109375" style="22" customWidth="1"/>
+    <col min="15895" max="16134" width="9.140625" style="22"/>
+    <col min="16135" max="16135" width="5.140625" style="22" customWidth="1"/>
+    <col min="16136" max="16136" width="9.7109375" style="22" customWidth="1"/>
+    <col min="16137" max="16137" width="1.42578125" style="22" customWidth="1"/>
+    <col min="16138" max="16139" width="12.7109375" style="22" customWidth="1"/>
+    <col min="16140" max="16140" width="3.7109375" style="22" customWidth="1"/>
+    <col min="16141" max="16142" width="12.7109375" style="22" customWidth="1"/>
+    <col min="16143" max="16144" width="2.85546875" style="22" customWidth="1"/>
+    <col min="16145" max="16146" width="12.7109375" style="22" customWidth="1"/>
+    <col min="16147" max="16148" width="2.7109375" style="22" customWidth="1"/>
+    <col min="16149" max="16150" width="12.7109375" style="22" customWidth="1"/>
+    <col min="16151" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="109" t="s">
+    <row r="2" spans="6:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="158"/>
+      <c r="G2" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="160"/>
+    </row>
+    <row r="3" spans="6:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="163"/>
+      <c r="G3" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="175"/>
+    </row>
+    <row r="4" spans="6:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="111" t="s">
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="162"/>
+    </row>
+    <row r="5" spans="6:22" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="163"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="164"/>
+    </row>
+    <row r="6" spans="6:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="165"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" s="23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="117" t="s">
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="33"/>
+    </row>
+    <row r="7" spans="6:22" s="23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="165"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="6:22" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="165"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="106" t="s">
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="33"/>
+    </row>
+    <row r="9" spans="6:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="165"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" s="23" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" s="23" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" s="23" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="111" t="s">
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="33"/>
+    </row>
+    <row r="10" spans="6:22" s="23" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="165"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="33"/>
+    </row>
+    <row r="11" spans="6:22" s="23" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="165"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="33"/>
+    </row>
+    <row r="12" spans="6:22" s="23" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="165"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="33"/>
+    </row>
+    <row r="13" spans="6:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="165"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="117" t="s">
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="33"/>
+    </row>
+    <row r="14" spans="6:22" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="165"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="33"/>
+    </row>
+    <row r="15" spans="6:22" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F15" s="165"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="106" t="s">
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="33"/>
+    </row>
+    <row r="16" spans="6:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="165"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="7"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="33"/>
+    </row>
+    <row r="17" spans="6:28" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="165"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="6:28" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="165"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="33"/>
+    </row>
+    <row r="19" spans="6:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="165"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="125" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="33"/>
+    </row>
+    <row r="20" spans="6:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="165"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="33"/>
+    </row>
+    <row r="21" spans="6:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="165"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="125"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="125" t="s">
+      <c r="K21" s="139"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="125" t="s">
+      <c r="N21" s="139"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="125"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="125" t="s">
+      <c r="R21" s="139"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="125"/>
-    </row>
-    <row r="21" spans="1:23" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="120" t="s">
+      <c r="V21" s="139"/>
+    </row>
+    <row r="22" spans="6:28" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="165"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="120"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="121" t="s">
+      <c r="K22" s="122"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="121" t="s">
+      <c r="N22" s="123"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="121" t="s">
+      <c r="R22" s="123"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="121"/>
-    </row>
-    <row r="22" spans="1:23" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="126" t="s">
+      <c r="V22" s="123"/>
+    </row>
+    <row r="23" spans="6:28" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F23" s="166"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="127"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="126" t="s">
+      <c r="K23" s="119"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="126" t="s">
+      <c r="N23" s="119"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="127"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="126" t="s">
+      <c r="R23" s="119"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="Q22" s="127"/>
-    </row>
-    <row r="23" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="128" t="s">
+      <c r="V23" s="119"/>
+    </row>
+    <row r="24" spans="6:28" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="166"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="128" t="s">
+      <c r="K24" s="121"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="128" t="s">
+      <c r="N24" s="121"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="129"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="128" t="s">
+      <c r="R24" s="121"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="129"/>
-    </row>
-    <row r="24" spans="1:23" s="23" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="133"/>
-    </row>
-    <row r="25" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
+      <c r="V24" s="121"/>
+    </row>
+    <row r="25" spans="6:28" s="23" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="165"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="107"/>
+    </row>
+    <row r="26" spans="6:28" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:23" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="30"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="7"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-    </row>
-    <row r="27" spans="1:23" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="7"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-    </row>
-    <row r="28" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="156"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="1:23" s="23" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="71" t="s">
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="33"/>
+    </row>
+    <row r="27" spans="6:28" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="33"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+    </row>
+    <row r="28" spans="6:28" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="33"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+    </row>
+    <row r="29" spans="6:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="33"/>
+    </row>
+    <row r="30" spans="6:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="165"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="33"/>
+    </row>
+    <row r="31" spans="6:28" s="23" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="165"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47">
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="33"/>
+    </row>
+    <row r="32" spans="6:28" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="165"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47">
         <v>1</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="46" t="s">
+      <c r="I32" s="47"/>
+      <c r="J32" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="7"/>
-      <c r="K31" s="23">
+      <c r="K32" s="47"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47">
         <v>6</v>
       </c>
-      <c r="L31" s="46" t="s">
+      <c r="Q32" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="1:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47">
+      <c r="R32" s="47"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="33"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="6:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="165"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47">
         <v>2</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="46" t="s">
+      <c r="I33" s="47"/>
+      <c r="J33" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="K32" s="23">
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47">
         <v>7</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="Q33" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="R32" s="46"/>
-    </row>
-    <row r="33" spans="2:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47">
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="169"/>
+      <c r="W33" s="46"/>
+    </row>
+    <row r="34" spans="6:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="165"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47">
         <v>3</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46" t="s">
+      <c r="I34" s="47"/>
+      <c r="J34" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="K33" s="23">
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47">
         <v>8</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="Q34" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="P33" s="48"/>
-    </row>
-    <row r="34" spans="2:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47">
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="169"/>
+    </row>
+    <row r="35" spans="6:23" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="165"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47">
         <v>4</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46" t="s">
+      <c r="I35" s="47"/>
+      <c r="J35" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="K34" s="23">
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47">
         <v>9</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="Q35" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="P34" s="48"/>
-    </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="46"/>
-      <c r="C35" s="48">
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="169"/>
+    </row>
+    <row r="36" spans="6:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="163"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="48">
         <v>5</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="46" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="K35" s="22">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48">
         <v>10</v>
       </c>
-      <c r="L35" s="70" t="s">
+      <c r="Q36" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="P35" s="48"/>
-    </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="46"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="O36" s="46"/>
-    </row>
-    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="164"/>
+    </row>
+    <row r="37" spans="6:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="163"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="164"/>
+    </row>
+    <row r="38" spans="6:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="163"/>
+      <c r="G38" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="47">
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="164"/>
+    </row>
+    <row r="39" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F39" s="163"/>
+      <c r="G39" s="47">
         <v>1</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23">
+      <c r="J39" s="47"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47">
         <v>6</v>
       </c>
-      <c r="K38" s="46" t="s">
+      <c r="P39" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="164"/>
+    </row>
+    <row r="40" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F40" s="163"/>
+      <c r="G40" s="47">
+        <v>2</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47">
+        <v>7</v>
+      </c>
+      <c r="P40" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="164"/>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F41" s="163"/>
+      <c r="G41" s="47">
+        <v>3</v>
+      </c>
+      <c r="H41" s="47"/>
+      <c r="I41" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47">
+        <v>8</v>
+      </c>
+      <c r="P41" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="164"/>
+    </row>
+    <row r="42" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F42" s="163"/>
+      <c r="G42" s="47">
+        <v>4</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47">
+        <v>9</v>
+      </c>
+      <c r="P42" s="178" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="164"/>
+    </row>
+    <row r="43" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F43" s="163"/>
+      <c r="G43" s="48">
+        <v>5</v>
+      </c>
+      <c r="H43" s="48"/>
+      <c r="I43" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="48"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="47">
-        <v>2</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23">
-        <v>7</v>
-      </c>
-      <c r="K39" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="48"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="47">
-        <v>3</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23">
-        <v>8</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="48"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="47">
-        <v>4</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23">
-        <v>9</v>
-      </c>
-      <c r="K41" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="48"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="48">
-        <v>5</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="48"/>
-      <c r="J42" s="22">
-        <v>10</v>
-      </c>
-      <c r="K42" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" s="48"/>
-    </row>
-    <row r="44" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C44" s="97" t="s">
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="164"/>
+    </row>
+    <row r="44" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F44" s="163"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="164"/>
+    </row>
+    <row r="45" spans="6:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F45" s="163"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C45" s="97" t="s">
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="164"/>
+    </row>
+    <row r="46" spans="6:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F46" s="171"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="98"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="172"/>
+      <c r="P46" s="172"/>
+      <c r="Q46" s="172"/>
+      <c r="R46" s="172"/>
+      <c r="S46" s="172"/>
+      <c r="T46" s="172"/>
+      <c r="U46" s="172"/>
+      <c r="V46" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="N6:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="F4:V4"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R13:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="F26:H27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.39370078740157483" top="0.57999999999999996" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -5154,64 +5386,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5222,12 +5454,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -5242,10 +5474,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -5260,12 +5492,12 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -5280,12 +5512,12 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -5300,12 +5532,12 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -5320,10 +5552,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -5378,12 +5610,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="27"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="111" t="s">
+      <c r="L13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="113"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5398,10 +5630,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="28"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="116"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -5416,12 +5648,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="27"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="135"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5436,12 +5668,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="27"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="106" t="s">
+      <c r="L16" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="108"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5456,12 +5688,12 @@
       <c r="I17" s="7"/>
       <c r="J17" s="27"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5476,10 +5708,10 @@
       <c r="I18" s="7"/>
       <c r="J18" s="27"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="126"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5554,105 +5786,105 @@
       <c r="A23" s="7"/>
       <c r="B23" s="27"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="125"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="125"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="125" t="s">
+      <c r="K23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="139"/>
       <c r="M23" s="27"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="125" t="s">
+      <c r="O23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="125"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="27"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="120"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="121"/>
+      <c r="H24" s="123"/>
       <c r="I24" s="27"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="121" t="s">
+      <c r="K24" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="121"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="34"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="121" t="s">
+      <c r="O24" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="121"/>
+      <c r="P24" s="123"/>
     </row>
     <row r="25" spans="1:16" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="35"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="127"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="127"/>
+      <c r="H25" s="119"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="126" t="s">
+      <c r="K25" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="127"/>
+      <c r="L25" s="119"/>
       <c r="M25" s="36"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="126" t="s">
+      <c r="O25" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="127"/>
+      <c r="P25" s="119"/>
     </row>
     <row r="26" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="129"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="129"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="128" t="s">
+      <c r="K26" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="129"/>
+      <c r="L26" s="121"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="128" t="s">
+      <c r="O26" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="129"/>
+      <c r="P26" s="121"/>
     </row>
     <row r="27" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -5678,25 +5910,25 @@
       <c r="A28" s="7"/>
       <c r="B28" s="28"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="133"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="133"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="30"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="38"/>
@@ -5713,8 +5945,8 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="39"/>
@@ -5731,8 +5963,8 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -5749,8 +5981,8 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -5767,8 +5999,8 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="130"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -5804,7 +6036,7 @@
     </row>
     <row r="35" spans="1:19" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="70" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="7"/>
@@ -5892,7 +6124,7 @@
       <c r="J39" s="23">
         <v>9</v>
       </c>
-      <c r="K39" s="70" t="s">
+      <c r="K39" s="69" t="s">
         <v>73</v>
       </c>
       <c r="O39" s="48"/>
@@ -5910,7 +6142,7 @@
       <c r="J40" s="22">
         <v>10</v>
       </c>
-      <c r="K40" s="70" t="s">
+      <c r="K40" s="69" t="s">
         <v>75</v>
       </c>
       <c r="O40" s="48"/>
@@ -5950,27 +6182,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O25:P25"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="H8:K8"/>
@@ -5987,6 +6198,27 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.39370078740157483" top="0.35433070866141736" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -6005,1797 +6237,1797 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="76" customWidth="1"/>
-    <col min="5" max="7" width="3.85546875" style="76" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="76" customWidth="1"/>
-    <col min="9" max="10" width="3.85546875" style="78" customWidth="1"/>
-    <col min="11" max="11" width="29" style="79" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="79" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="80" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="80" customWidth="1"/>
-    <col min="15" max="18" width="3.85546875" style="80" customWidth="1"/>
-    <col min="19" max="27" width="3.85546875" style="77" customWidth="1"/>
-    <col min="28" max="43" width="3.85546875" style="78" customWidth="1"/>
+    <col min="1" max="2" width="4.5703125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="75" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="75" customWidth="1"/>
+    <col min="5" max="7" width="3.85546875" style="75" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="75" customWidth="1"/>
+    <col min="9" max="10" width="3.85546875" style="77" customWidth="1"/>
+    <col min="11" max="11" width="29" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="78" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="79" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="79" customWidth="1"/>
+    <col min="15" max="18" width="3.85546875" style="79" customWidth="1"/>
+    <col min="19" max="27" width="3.85546875" style="76" customWidth="1"/>
+    <col min="28" max="43" width="3.85546875" style="77" customWidth="1"/>
     <col min="44" max="67" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="F1" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="77"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="75">
         <v>17</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="75">
         <v>1</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="75">
         <v>27</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="K2" s="82" t="s">
+      <c r="I2" s="76"/>
+      <c r="K2" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="80">
+      <c r="N2" s="79">
         <v>0</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="79">
         <v>1</v>
       </c>
-      <c r="Q2" s="80">
+      <c r="Q2" s="79">
         <v>1</v>
       </c>
-      <c r="R2" s="80">
+      <c r="R2" s="79">
         <v>1</v>
       </c>
-      <c r="AC2" s="84"/>
+      <c r="AC2" s="83"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="75">
         <v>1</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="75">
         <v>2</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="75">
         <v>8</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="K3" s="85" t="s">
+      <c r="I3" s="76"/>
+      <c r="K3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="80">
+      <c r="N3" s="79">
         <v>0</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="79">
         <v>9</v>
       </c>
-      <c r="Q3" s="80">
+      <c r="Q3" s="79">
         <v>9</v>
       </c>
-      <c r="R3" s="80">
+      <c r="R3" s="79">
         <v>9</v>
       </c>
-      <c r="AC3" s="84"/>
+      <c r="AC3" s="83"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="F4" s="76">
+      <c r="C4" s="85"/>
+      <c r="F4" s="75">
         <v>3</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="75">
         <v>1</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83" t="s">
+      <c r="I4" s="76"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="80">
+      <c r="N4" s="79">
         <v>0</v>
       </c>
-      <c r="P4" s="80">
+      <c r="P4" s="79">
         <v>5</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="Q4" s="79">
         <v>7</v>
       </c>
-      <c r="R4" s="80">
+      <c r="R4" s="79">
         <v>8</v>
       </c>
-      <c r="AC4" s="84"/>
+      <c r="AC4" s="83"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <v>3</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>4</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="75">
         <v>5</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="K5" s="82" t="s">
+      <c r="I5" s="76"/>
+      <c r="K5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N5" s="79">
         <v>0</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <v>9</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="79">
         <v>3</v>
       </c>
-      <c r="R5" s="80">
+      <c r="R5" s="79">
         <v>0</v>
       </c>
-      <c r="AC5" s="84"/>
+      <c r="AC5" s="83"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="75">
         <v>2</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>5</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="75">
         <v>5</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="K6" s="85" t="s">
+      <c r="I6" s="76"/>
+      <c r="K6" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N6" s="79">
         <v>0</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="79">
         <v>0</v>
       </c>
-      <c r="Q6" s="80">
+      <c r="Q6" s="79">
         <v>0</v>
       </c>
-      <c r="R6" s="80">
+      <c r="R6" s="79">
         <v>0</v>
       </c>
-      <c r="AC6" s="84"/>
+      <c r="AC6" s="83"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="75">
         <v>1</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>6</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="75">
         <v>2</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="I7" s="76"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="79">
         <v>0</v>
       </c>
-      <c r="P7" s="80">
+      <c r="P7" s="79">
         <v>9</v>
       </c>
-      <c r="Q7" s="80">
+      <c r="Q7" s="79">
         <v>8</v>
       </c>
-      <c r="R7" s="80">
+      <c r="R7" s="79">
         <v>5</v>
       </c>
-      <c r="AC7" s="84"/>
+      <c r="AC7" s="83"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="75">
         <v>3</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>7</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="75">
         <v>6</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="K8" s="82" t="s">
+      <c r="I8" s="76"/>
+      <c r="K8" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="79">
         <v>0</v>
       </c>
-      <c r="P8" s="80">
+      <c r="P8" s="79">
         <v>1</v>
       </c>
-      <c r="Q8" s="80">
+      <c r="Q8" s="79">
         <v>1</v>
       </c>
-      <c r="R8" s="80">
+      <c r="R8" s="79">
         <v>1</v>
       </c>
-      <c r="AC8" s="84"/>
+      <c r="AC8" s="83"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="75">
         <v>1</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <v>8</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="75">
         <v>5</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="K9" s="85" t="s">
+      <c r="I9" s="76"/>
+      <c r="K9" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="79">
         <v>0</v>
       </c>
-      <c r="P9" s="80">
+      <c r="P9" s="79">
         <v>6</v>
       </c>
-      <c r="Q9" s="80">
+      <c r="Q9" s="79">
         <v>0</v>
       </c>
-      <c r="R9" s="80">
+      <c r="R9" s="79">
         <v>0</v>
       </c>
-      <c r="AC9" s="84"/>
+      <c r="AC9" s="83"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="75">
         <f>10+6</f>
         <v>16</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>9</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>12</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83" t="s">
+      <c r="I10" s="76"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="80">
+      <c r="N10" s="79">
         <v>0</v>
       </c>
-      <c r="P10" s="80">
+      <c r="P10" s="79">
         <v>1</v>
       </c>
-      <c r="Q10" s="80">
+      <c r="Q10" s="79">
         <v>2</v>
       </c>
-      <c r="R10" s="80">
+      <c r="R10" s="79">
         <v>2</v>
       </c>
-      <c r="AC10" s="84"/>
+      <c r="AC10" s="83"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="75">
         <v>3</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>0</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="75">
         <v>37</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="K11" s="82" t="s">
+      <c r="I11" s="76"/>
+      <c r="K11" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N11" s="79">
         <v>0</v>
       </c>
-      <c r="P11" s="80">
+      <c r="P11" s="79">
         <v>9</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="79">
         <v>0</v>
       </c>
-      <c r="R11" s="80">
+      <c r="R11" s="79">
         <v>0</v>
       </c>
-      <c r="AC11" s="84"/>
+      <c r="AC11" s="83"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="75">
         <v>2</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="87">
         <f>SUM(H2:H11)</f>
         <v>108</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="K12" s="85" t="s">
+      <c r="I12" s="76"/>
+      <c r="K12" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N12" s="79">
         <v>0</v>
       </c>
-      <c r="P12" s="80">
+      <c r="P12" s="79">
         <v>8</v>
       </c>
-      <c r="Q12" s="80">
+      <c r="Q12" s="79">
         <v>0</v>
       </c>
-      <c r="R12" s="80">
+      <c r="R12" s="79">
         <v>0</v>
       </c>
-      <c r="AC12" s="84"/>
+      <c r="AC12" s="83"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="75">
         <v>3</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83" t="s">
+      <c r="I13" s="76"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="80">
+      <c r="N13" s="79">
         <v>0</v>
       </c>
-      <c r="P13" s="80">
+      <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13" s="80">
+      <c r="Q13" s="79">
         <v>5</v>
       </c>
-      <c r="R13" s="80">
+      <c r="R13" s="79">
         <v>7</v>
       </c>
-      <c r="AC13" s="84"/>
+      <c r="AC13" s="83"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>2</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="82" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="80" t="s">
+      <c r="M14" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="80">
+      <c r="N14" s="79">
         <v>0</v>
       </c>
-      <c r="P14" s="80">
+      <c r="P14" s="79">
         <v>0</v>
       </c>
-      <c r="Q14" s="80">
+      <c r="Q14" s="79">
         <v>0</v>
       </c>
-      <c r="R14" s="80">
+      <c r="R14" s="79">
         <v>0</v>
       </c>
-      <c r="AC14" s="84"/>
+      <c r="AC14" s="83"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="75">
         <f>8+6</f>
         <v>14</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="91" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="88">
         <f>H12+C29</f>
         <v>219</v>
       </c>
-      <c r="I15" s="93" t="s">
+      <c r="I15" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="83" t="s">
+      <c r="L15" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="80">
+      <c r="N15" s="79">
         <v>0</v>
       </c>
-      <c r="P15" s="80">
+      <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15" s="80">
+      <c r="Q15" s="79">
         <v>1</v>
       </c>
-      <c r="R15" s="80">
+      <c r="R15" s="79">
         <v>1</v>
       </c>
-      <c r="AC15" s="84"/>
+      <c r="AC15" s="83"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>2</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="80" t="s">
+      <c r="M16" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="80">
+      <c r="N16" s="79">
         <v>0</v>
       </c>
-      <c r="P16" s="80">
+      <c r="P16" s="79">
         <v>1</v>
       </c>
-      <c r="Q16" s="80">
+      <c r="Q16" s="79">
         <v>1</v>
       </c>
-      <c r="R16" s="80">
+      <c r="R16" s="79">
         <v>1</v>
       </c>
-      <c r="AC16" s="84"/>
+      <c r="AC16" s="83"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="75">
         <f>2+6</f>
         <v>8</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="83" t="s">
+      <c r="L17" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="M17" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="80">
+      <c r="N17" s="79">
         <v>0</v>
       </c>
-      <c r="P17" s="80">
+      <c r="P17" s="79">
         <v>0</v>
       </c>
-      <c r="Q17" s="80">
+      <c r="Q17" s="79">
         <v>0</v>
       </c>
-      <c r="R17" s="80">
+      <c r="R17" s="79">
         <v>0</v>
       </c>
-      <c r="AC17" s="84"/>
+      <c r="AC17" s="83"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="K18" s="85" t="s">
+      <c r="C18" s="85"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="K18" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="83" t="s">
+      <c r="L18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="80" t="s">
+      <c r="M18" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="80">
+      <c r="N18" s="79">
         <v>0</v>
       </c>
-      <c r="P18" s="80">
+      <c r="P18" s="79">
         <v>0</v>
       </c>
-      <c r="Q18" s="80">
+      <c r="Q18" s="79">
         <v>0</v>
       </c>
-      <c r="R18" s="80">
+      <c r="R18" s="79">
         <v>0</v>
       </c>
-      <c r="AC18" s="84"/>
+      <c r="AC18" s="83"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="75">
         <v>5</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="L19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="M19" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="N19" s="80">
+      <c r="N19" s="79">
         <v>0</v>
       </c>
-      <c r="P19" s="80">
+      <c r="P19" s="79">
         <v>4</v>
       </c>
-      <c r="Q19" s="80">
+      <c r="Q19" s="79">
         <v>9</v>
       </c>
-      <c r="R19" s="80">
+      <c r="R19" s="79">
         <v>9</v>
       </c>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AC19" s="84"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AC19" s="83"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>14</v>
       </c>
-      <c r="M20" s="80" t="s">
+      <c r="M20" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="N20" s="80">
+      <c r="N20" s="79">
         <v>0</v>
       </c>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>2</v>
       </c>
-      <c r="L21" s="95">
+      <c r="L21" s="94">
         <f>COUNTA(L2:L19)</f>
         <v>18</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="M21" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="79">
         <v>0</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="79">
         <v>1</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="79">
         <v>1</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>6</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="M22" s="80" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="M22" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="N22" s="80">
+      <c r="N22" s="79">
         <v>0</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="79">
         <v>9</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="79">
         <v>9</v>
       </c>
-      <c r="R22" s="80">
+      <c r="R22" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="75">
         <v>1</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="80" t="s">
+      <c r="G23" s="95"/>
+      <c r="H23" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="79">
         <v>2</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="M23" s="80" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="M23" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="N23" s="80">
+      <c r="N23" s="79">
         <v>0</v>
       </c>
-      <c r="P23" s="80">
+      <c r="P23" s="79">
         <v>7</v>
       </c>
-      <c r="Q23" s="80">
+      <c r="Q23" s="79">
         <v>8</v>
       </c>
-      <c r="R23" s="80">
+      <c r="R23" s="79">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="75">
         <v>2</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="80" t="s">
+      <c r="G24" s="95"/>
+      <c r="H24" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="79">
         <v>2</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="M24" s="80" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="M24" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="80">
+      <c r="N24" s="79">
         <v>0</v>
       </c>
-      <c r="P24" s="80">
+      <c r="P24" s="79">
         <v>1</v>
       </c>
-      <c r="Q24" s="80">
+      <c r="Q24" s="79">
         <v>5</v>
       </c>
-      <c r="R24" s="80">
+      <c r="R24" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="80" t="s">
+      <c r="C25" s="85"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="79">
         <v>2</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="M25" s="80" t="s">
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="M25" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="N25" s="80">
+      <c r="N25" s="79">
         <v>0</v>
       </c>
-      <c r="P25" s="80">
+      <c r="P25" s="79">
         <v>0</v>
       </c>
-      <c r="Q25" s="80">
+      <c r="Q25" s="79">
         <v>0</v>
       </c>
-      <c r="R25" s="80">
+      <c r="R25" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>3</v>
       </c>
-      <c r="G26" s="96"/>
-      <c r="H26" s="80" t="s">
+      <c r="G26" s="95"/>
+      <c r="H26" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="79">
         <v>2</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="M26" s="80" t="s">
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="M26" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="N26" s="80">
+      <c r="N26" s="79">
         <v>0</v>
       </c>
-      <c r="P26" s="80">
+      <c r="P26" s="79">
         <v>1</v>
       </c>
-      <c r="Q26" s="80">
+      <c r="Q26" s="79">
         <v>1</v>
       </c>
-      <c r="R26" s="80">
+      <c r="R26" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="80" t="s">
+      <c r="C27" s="85"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="79">
         <v>2</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="M27" s="80" t="s">
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="M27" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="80">
+      <c r="N27" s="79">
         <v>0</v>
       </c>
-      <c r="P27" s="80">
+      <c r="P27" s="79">
         <v>2</v>
       </c>
-      <c r="Q27" s="80">
+      <c r="Q27" s="79">
         <v>1</v>
       </c>
-      <c r="R27" s="80">
+      <c r="R27" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G28" s="96"/>
-      <c r="H28" s="80" t="s">
+      <c r="G28" s="95"/>
+      <c r="H28" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="79">
         <v>2</v>
       </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="M28" s="80" t="s">
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="M28" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="80">
+      <c r="N28" s="79">
         <v>0</v>
       </c>
-      <c r="P28" s="80">
+      <c r="P28" s="79">
         <v>7</v>
       </c>
-      <c r="Q28" s="80">
+      <c r="Q28" s="79">
         <v>8</v>
       </c>
-      <c r="R28" s="80">
+      <c r="R28" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C29" s="88">
+      <c r="C29" s="87">
         <f>SUM(C2:C28)</f>
         <v>111</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="80" t="s">
+      <c r="G29" s="95"/>
+      <c r="H29" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <v>3</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="M29" s="80" t="s">
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="M29" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="N29" s="80">
+      <c r="N29" s="79">
         <v>0</v>
       </c>
-      <c r="P29" s="80">
+      <c r="P29" s="79">
         <v>2</v>
       </c>
-      <c r="Q29" s="80">
+      <c r="Q29" s="79">
         <v>2</v>
       </c>
-      <c r="R29" s="80">
+      <c r="R29" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G30" s="96"/>
-      <c r="H30" s="80" t="s">
+      <c r="G30" s="95"/>
+      <c r="H30" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="79">
         <v>4</v>
       </c>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="M30" s="80" t="s">
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="M30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N30" s="80">
+      <c r="N30" s="79">
         <v>0</v>
       </c>
-      <c r="P30" s="80">
+      <c r="P30" s="79">
         <v>0</v>
       </c>
-      <c r="Q30" s="80">
+      <c r="Q30" s="79">
         <v>0</v>
       </c>
-      <c r="R30" s="80">
+      <c r="R30" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G31" s="96"/>
-      <c r="H31" s="80" t="s">
+      <c r="G31" s="95"/>
+      <c r="H31" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="80">
+      <c r="I31" s="79">
         <v>4</v>
       </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="M31" s="80" t="s">
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="M31" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N31" s="80">
+      <c r="N31" s="79">
         <v>0</v>
       </c>
-      <c r="P31" s="80">
+      <c r="P31" s="79">
         <v>0</v>
       </c>
-      <c r="Q31" s="80">
+      <c r="Q31" s="79">
         <v>0</v>
       </c>
-      <c r="R31" s="80">
+      <c r="R31" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G32" s="96"/>
-      <c r="H32" s="80" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="79">
         <v>4</v>
       </c>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="M32" s="80" t="s">
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="M32" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="80">
+      <c r="N32" s="79">
         <v>0</v>
       </c>
-      <c r="P32" s="80">
+      <c r="P32" s="79">
         <v>5</v>
       </c>
-      <c r="Q32" s="80">
+      <c r="Q32" s="79">
         <v>6</v>
       </c>
-      <c r="R32" s="80">
+      <c r="R32" s="79">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G33" s="96"/>
-      <c r="H33" s="80" t="s">
+      <c r="G33" s="95"/>
+      <c r="H33" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="79">
         <v>4</v>
       </c>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="M33" s="80" t="s">
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="M33" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="80">
+      <c r="N33" s="79">
         <v>0</v>
       </c>
-      <c r="P33" s="80">
+      <c r="P33" s="79">
         <v>0</v>
       </c>
-      <c r="Q33" s="80">
+      <c r="Q33" s="79">
         <v>0</v>
       </c>
-      <c r="R33" s="80">
+      <c r="R33" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G34" s="96"/>
-      <c r="H34" s="80" t="s">
+      <c r="G34" s="95"/>
+      <c r="H34" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I34" s="80">
+      <c r="I34" s="79">
         <v>4</v>
       </c>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="M34" s="80" t="s">
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="M34" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="80">
+      <c r="N34" s="79">
         <v>0</v>
       </c>
-      <c r="P34" s="80">
+      <c r="P34" s="79">
         <v>1</v>
       </c>
-      <c r="Q34" s="80">
+      <c r="Q34" s="79">
         <v>4</v>
       </c>
-      <c r="R34" s="80">
+      <c r="R34" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G35" s="96"/>
-      <c r="H35" s="80" t="s">
+      <c r="G35" s="95"/>
+      <c r="H35" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="79">
         <v>5</v>
       </c>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="M35" s="80" t="s">
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="M35" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N35" s="80">
+      <c r="N35" s="79">
         <v>0</v>
       </c>
-      <c r="P35" s="80">
+      <c r="P35" s="79">
         <v>1</v>
       </c>
-      <c r="Q35" s="80">
+      <c r="Q35" s="79">
         <v>1</v>
       </c>
-      <c r="R35" s="80">
+      <c r="R35" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G36" s="96"/>
-      <c r="H36" s="80" t="s">
+      <c r="G36" s="95"/>
+      <c r="H36" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="I36" s="80">
+      <c r="I36" s="79">
         <v>5</v>
       </c>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="M36" s="80" t="s">
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="M36" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N36" s="80">
+      <c r="N36" s="79">
         <v>0</v>
       </c>
-      <c r="P36" s="80">
+      <c r="P36" s="79">
         <v>0</v>
       </c>
-      <c r="Q36" s="80">
+      <c r="Q36" s="79">
         <v>0</v>
       </c>
-      <c r="R36" s="80">
+      <c r="R36" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G37" s="96"/>
-      <c r="H37" s="80" t="s">
+      <c r="G37" s="95"/>
+      <c r="H37" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="80">
+      <c r="I37" s="79">
         <v>5</v>
       </c>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="M37" s="80" t="s">
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="M37" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N37" s="80">
+      <c r="N37" s="79">
         <v>0</v>
       </c>
-      <c r="P37" s="80">
+      <c r="P37" s="79">
         <v>0</v>
       </c>
-      <c r="Q37" s="80">
+      <c r="Q37" s="79">
         <v>0</v>
       </c>
-      <c r="R37" s="80">
+      <c r="R37" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G38" s="96"/>
-      <c r="H38" s="80" t="s">
+      <c r="G38" s="95"/>
+      <c r="H38" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="80">
+      <c r="I38" s="79">
         <v>5</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="M38" s="80" t="s">
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="M38" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N38" s="80">
+      <c r="N38" s="79">
         <v>0</v>
       </c>
-      <c r="P38" s="80">
+      <c r="P38" s="79">
         <v>4</v>
       </c>
-      <c r="Q38" s="80">
+      <c r="Q38" s="79">
         <v>4</v>
       </c>
-      <c r="R38" s="80">
+      <c r="R38" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G39" s="96"/>
-      <c r="H39" s="80" t="s">
+      <c r="G39" s="95"/>
+      <c r="H39" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="80">
+      <c r="I39" s="79">
         <v>5</v>
       </c>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="M39" s="80" t="s">
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="M39" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="N39" s="80">
+      <c r="N39" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G40" s="96"/>
-      <c r="H40" s="80" t="s">
+      <c r="G40" s="95"/>
+      <c r="H40" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I40" s="79">
         <v>6</v>
       </c>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="M40" s="80" t="s">
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="M40" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="N40" s="80">
+      <c r="N40" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G41" s="96"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="95"/>
+      <c r="H41" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="80">
+      <c r="I41" s="79">
         <v>6</v>
       </c>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="M41" s="80" t="s">
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="M41" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="N41" s="80">
+      <c r="N41" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G42" s="96"/>
-      <c r="H42" s="80" t="s">
+      <c r="G42" s="95"/>
+      <c r="H42" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="79">
         <v>7</v>
       </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="M42" s="80" t="s">
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="M42" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="80">
+      <c r="N42" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G43" s="96"/>
-      <c r="H43" s="80" t="s">
+      <c r="G43" s="95"/>
+      <c r="H43" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="80">
+      <c r="I43" s="79">
         <v>7</v>
       </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="M43" s="80" t="s">
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="M43" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="80">
+      <c r="N43" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G44" s="96"/>
-      <c r="H44" s="80" t="s">
+      <c r="G44" s="95"/>
+      <c r="H44" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="80">
+      <c r="I44" s="79">
         <v>7</v>
       </c>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="M44" s="80" t="s">
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="M44" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="N44" s="80">
+      <c r="N44" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G45" s="96"/>
-      <c r="H45" s="80" t="s">
+      <c r="G45" s="95"/>
+      <c r="H45" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="I45" s="80">
+      <c r="I45" s="79">
         <v>7</v>
       </c>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="M45" s="80" t="s">
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="M45" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="N45" s="80">
+      <c r="N45" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G46" s="96"/>
-      <c r="H46" s="80" t="s">
+      <c r="G46" s="95"/>
+      <c r="H46" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="80">
+      <c r="I46" s="79">
         <v>7</v>
       </c>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="M46" s="80" t="s">
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="M46" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="80">
+      <c r="N46" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G47" s="96"/>
-      <c r="H47" s="80" t="s">
+      <c r="G47" s="95"/>
+      <c r="H47" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="80">
+      <c r="I47" s="79">
         <v>7</v>
       </c>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="M47" s="80" t="s">
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="M47" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="N47" s="80">
+      <c r="N47" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G48" s="96"/>
-      <c r="H48" s="80" t="s">
+      <c r="G48" s="95"/>
+      <c r="H48" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="I48" s="80">
+      <c r="I48" s="79">
         <v>8</v>
       </c>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="M48" s="80" t="s">
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="M48" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="80">
+      <c r="N48" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G49" s="96"/>
-      <c r="H49" s="80" t="s">
+      <c r="G49" s="95"/>
+      <c r="H49" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="I49" s="80">
+      <c r="I49" s="79">
         <v>8</v>
       </c>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="M49" s="80" t="s">
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="M49" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="N49" s="80">
+      <c r="N49" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G50" s="96"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80">
+      <c r="G50" s="95"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79">
         <v>8</v>
       </c>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="M50" s="80" t="s">
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="M50" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N50" s="80">
+      <c r="N50" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G51" s="96"/>
-      <c r="H51" s="95">
+      <c r="G51" s="95"/>
+      <c r="H51" s="94">
         <f>COUNTA(M2:M94)</f>
         <v>66</v>
       </c>
-      <c r="I51" s="80">
+      <c r="I51" s="79">
         <v>8</v>
       </c>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="M51" s="80" t="s">
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="M51" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N51" s="80">
+      <c r="N51" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G52" s="96"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80">
+      <c r="G52" s="95"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79">
         <v>8</v>
       </c>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="M52" s="80" t="s">
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="M52" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N52" s="80">
+      <c r="N52" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G53" s="96"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80">
+      <c r="G53" s="95"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79">
         <v>9</v>
       </c>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="M53" s="80" t="s">
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="M53" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N53" s="80">
+      <c r="N53" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G54" s="96"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80">
+      <c r="G54" s="95"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79">
         <v>9</v>
       </c>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="M54" s="80" t="s">
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="M54" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N54" s="80">
+      <c r="N54" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G55" s="96"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80">
+      <c r="G55" s="95"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79">
         <v>9</v>
       </c>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="M55" s="80" t="s">
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="M55" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N55" s="80">
+      <c r="N55" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G56" s="96"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80">
+      <c r="G56" s="95"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79">
         <v>9</v>
       </c>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="M56" s="80" t="s">
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="M56" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N56" s="80">
+      <c r="N56" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G57" s="96"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80">
+      <c r="G57" s="95"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79">
         <v>9</v>
       </c>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="M57" s="80" t="s">
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="M57" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="N57" s="80">
+      <c r="N57" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G58" s="96"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80">
+      <c r="G58" s="95"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79">
         <v>9</v>
       </c>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="M58" s="80" t="s">
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="M58" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="N58" s="80">
+      <c r="N58" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G59" s="96"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80">
+      <c r="G59" s="95"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79">
         <v>9</v>
       </c>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="M59" s="80" t="s">
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="M59" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="N59" s="80">
+      <c r="N59" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G60" s="96"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80">
+      <c r="G60" s="95"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79">
         <v>9</v>
       </c>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="M60" s="80" t="s">
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="M60" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N60" s="80">
+      <c r="N60" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G61" s="96"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80">
+      <c r="G61" s="95"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79">
         <v>9</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="M61" s="80" t="s">
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="M61" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N61" s="80">
+      <c r="N61" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G62" s="96"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80">
+      <c r="G62" s="95"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79">
         <v>9</v>
       </c>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="M62" s="80" t="s">
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="M62" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N62" s="80">
+      <c r="N62" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G63" s="96"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80">
+      <c r="G63" s="95"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79">
         <v>9</v>
       </c>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="M63" s="80" t="s">
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="M63" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N63" s="80">
+      <c r="N63" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G64" s="96"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80">
+      <c r="G64" s="95"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79">
         <v>9</v>
       </c>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="M64" s="80" t="s">
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="M64" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N64" s="80">
+      <c r="N64" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G65" s="96"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="95">
+      <c r="G65" s="95"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="94">
         <f>COUNTA(N2:N109)</f>
         <v>66</v>
       </c>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="M65" s="80" t="s">
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="M65" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N65" s="80">
+      <c r="N65" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="M66" s="80" t="s">
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="M66" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N66" s="80">
+      <c r="N66" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="M67" s="80" t="s">
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="M67" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="N67" s="80">
+      <c r="N67" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
     </row>
     <row r="69" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
     </row>
     <row r="70" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
     </row>
     <row r="71" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8527,64 +8759,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8595,12 +8827,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8615,10 +8847,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8633,12 +8865,12 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="144" t="s">
+      <c r="H7" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="145"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -8653,12 +8885,12 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -8673,12 +8905,12 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8693,12 +8925,12 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -8753,12 +8985,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="27"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="111" t="s">
+      <c r="L13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="113"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8773,10 +9005,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="28"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="116"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -8791,12 +9023,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="27"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="144" t="s">
+      <c r="L15" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="145"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="150"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8811,12 +9043,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="27"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="106" t="s">
+      <c r="L16" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="108"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8831,12 +9063,12 @@
       <c r="I17" s="7"/>
       <c r="J17" s="27"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8851,12 +9083,12 @@
       <c r="I18" s="7"/>
       <c r="J18" s="27"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="122" t="s">
+      <c r="L18" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="126"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8931,105 +9163,105 @@
       <c r="A23" s="7"/>
       <c r="B23" s="27"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="125"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="125"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="125" t="s">
+      <c r="K23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="139"/>
       <c r="M23" s="27"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="125" t="s">
+      <c r="O23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="125"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="27"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="120"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="121"/>
+      <c r="H24" s="123"/>
       <c r="I24" s="27"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="121" t="s">
+      <c r="K24" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="121"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="34"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="121" t="s">
+      <c r="O24" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="121"/>
+      <c r="P24" s="123"/>
     </row>
     <row r="25" spans="1:16" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="35"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="145"/>
+      <c r="E25" s="150"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="144" t="s">
+      <c r="G25" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="145"/>
+      <c r="H25" s="150"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="144" t="s">
+      <c r="K25" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="145"/>
+      <c r="L25" s="150"/>
       <c r="M25" s="36"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="144" t="s">
+      <c r="O25" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="145"/>
+      <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="129"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="129"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="128" t="s">
+      <c r="K26" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="129"/>
+      <c r="L26" s="121"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="128" t="s">
+      <c r="O26" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="146"/>
+      <c r="P26" s="151"/>
     </row>
     <row r="27" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -9061,33 +9293,33 @@
       <c r="A28" s="7"/>
       <c r="B28" s="28"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="132" t="s">
+      <c r="D28" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="133"/>
+      <c r="E28" s="107"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="134" t="s">
+      <c r="G28" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="133"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="132" t="s">
+      <c r="K28" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="133"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="30"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="132" t="s">
+      <c r="O28" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="133"/>
+      <c r="P28" s="107"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="38"/>
@@ -9104,8 +9336,8 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="39"/>
@@ -9122,8 +9354,8 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -9140,8 +9372,8 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -9158,8 +9390,8 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="130"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -9326,12 +9558,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="K24:L24"/>
@@ -9347,22 +9589,12 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.4" top="0.56000000000000005" bottom="0.78" header="0.5" footer="0.5"/>
@@ -9395,185 +9627,185 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="152" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="152"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="152" t="s">
         <v>113</v>
       </c>
       <c r="G3" s="152"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="152" t="s">
         <v>115</v>
       </c>
       <c r="K3" s="152"/>
-      <c r="L3" s="72"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="153" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="153"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="153" t="s">
         <v>114</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="153" t="s">
         <v>116</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="72"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="72"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="148" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="72"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="150" t="s">
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="151" t="s">
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="75"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.42" top="0.94" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="768" orientation="portrait" r:id="rId1"/>
